--- a/molinos.xlsx
+++ b/molinos.xlsx
@@ -1,20 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tk\Desktop\proyectos python\bot_alerta_tendencias\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9547144A-96DA-4822-BAA2-5ADBD489D4CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="14">
   <si>
     <t>Date</t>
   </si>
@@ -45,15 +64,27 @@
   <si>
     <t>MOLI.BA</t>
   </si>
+  <si>
+    <t>SMA 5 TAKE</t>
+  </si>
+  <si>
+    <t>SMA 20 TAKE</t>
+  </si>
+  <si>
+    <t>ERROR SMA5</t>
+  </si>
+  <si>
+    <t>ERROR SMA20</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -70,15 +101,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -101,29 +138,53 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -161,7 +222,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -195,6 +256,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -229,9 +291,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -404,14 +467,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I120"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="L122" sqref="L122"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -439,8 +511,20 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>45741</v>
       </c>
@@ -451,7 +535,7 @@
         <v>3267.639308120265</v>
       </c>
       <c r="D2">
-        <v>3074.458116319444</v>
+        <v>3074.4581163194439</v>
       </c>
       <c r="E2">
         <v>3205.985736268939</v>
@@ -463,7 +547,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>45742</v>
       </c>
@@ -474,10 +558,10 @@
         <v>3329.293013812618</v>
       </c>
       <c r="D3">
-        <v>3205.985865152892</v>
+        <v>3205.9858651528921</v>
       </c>
       <c r="E3">
-        <v>3263.529201194098</v>
+        <v>3263.5292011940978</v>
       </c>
       <c r="F3">
         <v>6977</v>
@@ -486,7 +570,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>45743</v>
       </c>
@@ -494,13 +578,13 @@
         <v>3341.623779296875</v>
       </c>
       <c r="C4">
-        <v>3419.71830796433</v>
+        <v>3419.7183079643301</v>
       </c>
       <c r="D4">
-        <v>3168.993768558291</v>
+        <v>3168.9937685582909</v>
       </c>
       <c r="E4">
-        <v>3288.190680734932</v>
+        <v>3288.1906807349319</v>
       </c>
       <c r="F4">
         <v>14210</v>
@@ -509,7 +593,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>45744</v>
       </c>
@@ -517,13 +601,13 @@
         <v>3374.505615234375</v>
       </c>
       <c r="C5">
-        <v>3444.379665732529</v>
+        <v>3444.3796657325288</v>
       </c>
       <c r="D5">
         <v>3218.316561179678</v>
       </c>
       <c r="E5">
-        <v>3444.379665732529</v>
+        <v>3444.3796657325288</v>
       </c>
       <c r="F5">
         <v>6057</v>
@@ -532,7 +616,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>45747</v>
       </c>
@@ -540,13 +624,13 @@
         <v>3300.521240234375</v>
       </c>
       <c r="C6">
-        <v>3415.607908636072</v>
+        <v>3415.6079086360719</v>
       </c>
       <c r="D6">
-        <v>3226.536953404713</v>
+        <v>3226.5369534047131</v>
       </c>
       <c r="E6">
-        <v>3411.497670478868</v>
+        <v>3411.4976704788678</v>
       </c>
       <c r="F6">
         <v>11533</v>
@@ -555,10 +639,18 @@
         <v>9</v>
       </c>
       <c r="H6">
-        <v>3304.63154296875</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>3304.6315429687502</v>
+      </c>
+      <c r="J6">
+        <f>AVERAGE(B2:B6)</f>
+        <v>3304.6315429687502</v>
+      </c>
+      <c r="L6">
+        <f>J6-H6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>45748</v>
       </c>
@@ -566,13 +658,13 @@
         <v>3251.198486328125</v>
       </c>
       <c r="C7">
-        <v>3378.615873276509</v>
+        <v>3378.6158732765089</v>
       </c>
       <c r="D7">
-        <v>3123.781099379741</v>
+        <v>3123.7810993797411</v>
       </c>
       <c r="E7">
-        <v>3230.647294884837</v>
+        <v>3230.6472948848368</v>
       </c>
       <c r="F7">
         <v>4983</v>
@@ -581,10 +673,18 @@
         <v>9</v>
       </c>
       <c r="H7">
-        <v>3303.809521484375</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>3303.8095214843752</v>
+      </c>
+      <c r="J7">
+        <f>AVERAGE(B3:B7)</f>
+        <v>3303.8095214843752</v>
+      </c>
+      <c r="L7">
+        <f t="shared" ref="L7:L70" si="0">J7-H7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>45750</v>
       </c>
@@ -592,13 +692,13 @@
         <v>3136.11181640625</v>
       </c>
       <c r="C8">
-        <v>3205.985867361566</v>
+        <v>3205.9858673615659</v>
       </c>
       <c r="D8">
-        <v>2959.371569872215</v>
+        <v>2959.3715698722149</v>
       </c>
       <c r="E8">
-        <v>3205.985867361566</v>
+        <v>3205.9858673615659</v>
       </c>
       <c r="F8">
         <v>6949</v>
@@ -607,10 +707,18 @@
         <v>9</v>
       </c>
       <c r="H8">
-        <v>3280.7921875</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>3280.7921875000002</v>
+      </c>
+      <c r="J8">
+        <f t="shared" ref="J8:J71" si="1">AVERAGE(B4:B8)</f>
+        <v>3280.7921875000002</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>45751</v>
       </c>
@@ -618,13 +726,13 @@
         <v>2844.284912109375</v>
       </c>
       <c r="C9">
-        <v>3000.473967976653</v>
+        <v>3000.4739679766531</v>
       </c>
       <c r="D9">
-        <v>2712.757286115878</v>
+        <v>2712.7572861158778</v>
       </c>
       <c r="E9">
-        <v>3000.473967976653</v>
+        <v>3000.4739679766531</v>
       </c>
       <c r="F9">
         <v>12360</v>
@@ -633,10 +741,18 @@
         <v>9</v>
       </c>
       <c r="H9">
-        <v>3181.3244140625</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>3181.3244140625002</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="1"/>
+        <v>3181.3244140625002</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>45754</v>
       </c>
@@ -644,7 +760,7 @@
         <v>2696.31640625</v>
       </c>
       <c r="C10">
-        <v>2868.946420064787</v>
+        <v>2868.9464200647872</v>
       </c>
       <c r="D10">
         <v>2659.324260432546</v>
@@ -659,10 +775,18 @@
         <v>9</v>
       </c>
       <c r="H10">
-        <v>3045.686572265625</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>3045.6865722656248</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="1"/>
+        <v>3045.6865722656248</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>45755</v>
       </c>
@@ -670,10 +794,10 @@
         <v>2494.91455078125</v>
       </c>
       <c r="C11">
-        <v>2848.395030793091</v>
+        <v>2848.3950307930909</v>
       </c>
       <c r="D11">
-        <v>2425.040502406816</v>
+        <v>2425.0405024068159</v>
       </c>
       <c r="E11">
         <v>2794.961934977347</v>
@@ -685,10 +809,18 @@
         <v>9</v>
       </c>
       <c r="H11">
-        <v>2884.565234375</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>2884.5652343749998</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="1"/>
+        <v>2884.5652343749998</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>45756</v>
       </c>
@@ -696,13 +828,13 @@
         <v>2745.63916015625</v>
       </c>
       <c r="C12">
-        <v>2762.080113211078</v>
+        <v>2762.0801132110778</v>
       </c>
       <c r="D12">
-        <v>2227.749138929173</v>
+        <v>2227.7491389291731</v>
       </c>
       <c r="E12">
-        <v>2466.142958224177</v>
+        <v>2466.1429582241772</v>
       </c>
       <c r="F12">
         <v>38570</v>
@@ -713,8 +845,16 @@
       <c r="H12">
         <v>2783.453369140625</v>
       </c>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="J12">
+        <f t="shared" si="1"/>
+        <v>2783.453369140625</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>45757</v>
       </c>
@@ -722,13 +862,13 @@
         <v>2651.103759765625</v>
       </c>
       <c r="C13">
-        <v>2712.757335574128</v>
+        <v>2712.7573355741279</v>
       </c>
       <c r="D13">
-        <v>2519.576131374152</v>
+        <v>2519.5761313741518</v>
       </c>
       <c r="E13">
-        <v>2712.757335574128</v>
+        <v>2712.7573355741279</v>
       </c>
       <c r="F13">
         <v>8319</v>
@@ -737,10 +877,18 @@
         <v>9</v>
       </c>
       <c r="H13">
-        <v>2686.4517578125</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>2686.4517578125001</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="1"/>
+        <v>2686.4517578125001</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>45758</v>
       </c>
@@ -748,13 +896,13 @@
         <v>2790.851806640625</v>
       </c>
       <c r="C14">
-        <v>3041.576343025129</v>
+        <v>3041.5763430251291</v>
       </c>
       <c r="D14">
-        <v>2671.654895900451</v>
+        <v>2671.6548959004508</v>
       </c>
       <c r="E14">
-        <v>2766.190376832313</v>
+        <v>2766.1903768323132</v>
       </c>
       <c r="F14">
         <v>12986</v>
@@ -765,8 +913,16 @@
       <c r="H14">
         <v>2675.76513671875</v>
       </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="J14">
+        <f t="shared" si="1"/>
+        <v>2675.76513671875</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>45761</v>
       </c>
@@ -774,13 +930,13 @@
         <v>3271.749755859375</v>
       </c>
       <c r="C15">
-        <v>3452.600244876728</v>
+        <v>3452.6002448767281</v>
       </c>
       <c r="D15">
-        <v>3041.576406200927</v>
+        <v>3041.5764062009271</v>
       </c>
       <c r="E15">
-        <v>3041.576406200927</v>
+        <v>3041.5764062009271</v>
       </c>
       <c r="F15">
         <v>32351</v>
@@ -791,8 +947,16 @@
       <c r="H15">
         <v>2790.851806640625</v>
       </c>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="J15">
+        <f t="shared" si="1"/>
+        <v>2790.851806640625</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>45762</v>
       </c>
@@ -803,10 +967,10 @@
         <v>3649.891632840302</v>
       </c>
       <c r="D16">
-        <v>3304.631613517571</v>
+        <v>3304.6316135175712</v>
       </c>
       <c r="E16">
-        <v>3304.631613517571</v>
+        <v>3304.6316135175712</v>
       </c>
       <c r="F16">
         <v>28131</v>
@@ -815,10 +979,18 @@
         <v>9</v>
       </c>
       <c r="H16">
-        <v>2984.855078125</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>2984.8550781250001</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="1"/>
+        <v>2984.8550781250001</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>45763</v>
       </c>
@@ -826,13 +998,13 @@
         <v>3164.883544921875</v>
       </c>
       <c r="C17">
-        <v>3748.537393465909</v>
+        <v>3748.5373934659092</v>
       </c>
       <c r="D17">
         <v>3123.781161221591</v>
       </c>
       <c r="E17">
-        <v>3526.584521484375</v>
+        <v>3526.5845214843748</v>
       </c>
       <c r="F17">
         <v>18522</v>
@@ -841,10 +1013,18 @@
         <v>9</v>
       </c>
       <c r="H17">
-        <v>3068.703955078125</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>3068.7039550781251</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="1"/>
+        <v>3068.7039550781251</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>45768</v>
       </c>
@@ -852,13 +1032,13 @@
         <v>2852.50537109375</v>
       </c>
       <c r="C18">
-        <v>3164.883480896524</v>
+        <v>3164.8834808965239</v>
       </c>
       <c r="D18">
-        <v>2799.072273364328</v>
+        <v>2799.0722733643279</v>
       </c>
       <c r="E18">
-        <v>3164.883480896524</v>
+        <v>3164.8834808965239</v>
       </c>
       <c r="F18">
         <v>16628</v>
@@ -867,10 +1047,18 @@
         <v>9</v>
       </c>
       <c r="H18">
-        <v>3108.98427734375</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>3108.9842773437499</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="1"/>
+        <v>3108.9842773437499</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>45769</v>
       </c>
@@ -878,13 +1066,13 @@
         <v>2778.52099609375</v>
       </c>
       <c r="C19">
-        <v>2955.261236969536</v>
+        <v>2955.2612369695362</v>
       </c>
       <c r="D19">
-        <v>2741.528852654632</v>
+        <v>2741.5288526546319</v>
       </c>
       <c r="E19">
-        <v>2852.505282971986</v>
+        <v>2852.5052829719862</v>
       </c>
       <c r="F19">
         <v>13690</v>
@@ -893,10 +1081,18 @@
         <v>9</v>
       </c>
       <c r="H19">
-        <v>3106.518115234375</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>3106.5181152343748</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="1"/>
+        <v>3106.5181152343748</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>45770</v>
       </c>
@@ -910,7 +1106,7 @@
         <v>2770.300629571143</v>
       </c>
       <c r="E20">
-        <v>2844.284919381649</v>
+        <v>2844.2849193816492</v>
       </c>
       <c r="F20">
         <v>13090</v>
@@ -919,10 +1115,18 @@
         <v>9</v>
       </c>
       <c r="H20">
-        <v>3031.711767578125</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>3031.7117675781251</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="1"/>
+        <v>3031.7117675781251</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>45771</v>
       </c>
@@ -930,13 +1134,13 @@
         <v>3004.584228515625</v>
       </c>
       <c r="C21">
-        <v>3082.678757026975</v>
+        <v>3082.6787570269748</v>
       </c>
       <c r="D21">
         <v>2905.938508290762</v>
       </c>
       <c r="E21">
-        <v>2971.702321774004</v>
+        <v>2971.7023217740038</v>
       </c>
       <c r="F21">
         <v>11039</v>
@@ -945,13 +1149,29 @@
         <v>9</v>
       </c>
       <c r="H21">
-        <v>2939.642431640625</v>
+        <v>2939.6424316406251</v>
       </c>
       <c r="I21">
         <v>3028.423571777344</v>
       </c>
-    </row>
-    <row r="22" spans="1:9">
+      <c r="J21">
+        <f t="shared" si="1"/>
+        <v>2939.6424316406251</v>
+      </c>
+      <c r="K21">
+        <f>AVERAGE(B2:B21)</f>
+        <v>3028.4235717773436</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <f>I21-K21</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>45772</v>
       </c>
@@ -959,13 +1179,13 @@
         <v>3144.332275390625</v>
       </c>
       <c r="C22">
-        <v>3201.875611149408</v>
+        <v>3201.8756111494081</v>
       </c>
       <c r="D22">
-        <v>3008.694412530637</v>
+        <v>3008.6944125306368</v>
       </c>
       <c r="E22">
-        <v>3025.135365604575</v>
+        <v>3025.1353656045749</v>
       </c>
       <c r="F22">
         <v>16322</v>
@@ -974,13 +1194,29 @@
         <v>9</v>
       </c>
       <c r="H22">
-        <v>2935.532177734375</v>
+        <v>2935.5321777343752</v>
       </c>
       <c r="I22">
         <v>3022.874755859375</v>
       </c>
-    </row>
-    <row r="23" spans="1:9">
+      <c r="J22">
+        <f t="shared" si="1"/>
+        <v>2935.5321777343752</v>
+      </c>
+      <c r="K22">
+        <f t="shared" ref="K22:K85" si="2">AVERAGE(B3:B22)</f>
+        <v>3022.874755859375</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <f t="shared" ref="M22:M85" si="3">I22-K22</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>45775</v>
       </c>
@@ -988,13 +1224,13 @@
         <v>3021.025146484375</v>
       </c>
       <c r="C23">
-        <v>3205.98586973852</v>
+        <v>3205.9858697385198</v>
       </c>
       <c r="D23">
-        <v>3000.473955011692</v>
+        <v>3000.4739550116919</v>
       </c>
       <c r="E23">
-        <v>3201.875631443984</v>
+        <v>3201.8756314439838</v>
       </c>
       <c r="F23">
         <v>5882</v>
@@ -1003,13 +1239,29 @@
         <v>9</v>
       </c>
       <c r="H23">
-        <v>2969.2361328125</v>
+        <v>2969.2361328124998</v>
       </c>
       <c r="I23">
         <v>3011.366088867188</v>
       </c>
-    </row>
-    <row r="24" spans="1:9">
+      <c r="J23">
+        <f t="shared" si="1"/>
+        <v>2969.2361328124998</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="2"/>
+        <v>3011.3660888671875</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>45776</v>
       </c>
@@ -1020,10 +1272,10 @@
         <v>3173.103808064448</v>
       </c>
       <c r="D24">
-        <v>2975.812379583757</v>
+        <v>2975.8123795837569</v>
       </c>
       <c r="E24">
-        <v>3095.009284290841</v>
+        <v>3095.0092842908412</v>
       </c>
       <c r="F24">
         <v>6565</v>
@@ -1032,13 +1284,29 @@
         <v>9</v>
       </c>
       <c r="H24">
-        <v>3020.203076171875</v>
+        <v>3020.2030761718752</v>
       </c>
       <c r="I24">
-        <v>2995.952685546875</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>2995.9526855468748</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="1"/>
+        <v>3020.2030761718752</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="2"/>
+        <v>2995.9526855468748</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>45777</v>
       </c>
@@ -1049,7 +1317,7 @@
         <v>3082.678570010798</v>
       </c>
       <c r="D25">
-        <v>2959.371427210366</v>
+        <v>2959.3714272103662</v>
       </c>
       <c r="E25">
         <v>3082.678570010798</v>
@@ -1061,13 +1329,29 @@
         <v>9</v>
       </c>
       <c r="H25">
-        <v>3047.330615234375</v>
+        <v>3047.3306152343748</v>
       </c>
       <c r="I25">
-        <v>2978.895190429687</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>2978.8951904296869</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="1"/>
+        <v>3047.3306152343748</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="2"/>
+        <v>2978.8951904296873</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>45782</v>
       </c>
@@ -1075,13 +1359,13 @@
         <v>2881.277099609375</v>
       </c>
       <c r="C26">
-        <v>3086.789018269102</v>
+        <v>3086.7890182691021</v>
       </c>
       <c r="D26">
-        <v>2836.064477504235</v>
+        <v>2836.0644775042351</v>
       </c>
       <c r="E26">
-        <v>2959.371628700071</v>
+        <v>2959.3716287000711</v>
       </c>
       <c r="F26">
         <v>8705</v>
@@ -1095,8 +1379,24 @@
       <c r="I26">
         <v>2957.932983398438</v>
       </c>
-    </row>
-    <row r="27" spans="1:9">
+      <c r="J26">
+        <f t="shared" si="1"/>
+        <v>3022.669189453125</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="2"/>
+        <v>2957.9329833984375</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>45783</v>
       </c>
@@ -1104,10 +1404,10 @@
         <v>3025.13525390625</v>
       </c>
       <c r="C27">
-        <v>3099.119540007218</v>
+        <v>3099.1195400072179</v>
       </c>
       <c r="D27">
-        <v>2852.505253003991</v>
+        <v>2852.5052530039911</v>
       </c>
       <c r="E27">
         <v>2881.276919821034</v>
@@ -1119,13 +1419,29 @@
         <v>9</v>
       </c>
       <c r="H27">
-        <v>2998.82978515625</v>
+        <v>2998.8297851562502</v>
       </c>
       <c r="I27">
-        <v>2946.629821777344</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>2946.6298217773442</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="1"/>
+        <v>2998.8297851562502</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="2"/>
+        <v>2946.6298217773438</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>45784</v>
       </c>
@@ -1136,7 +1452,7 @@
         <v>3119.670774834924</v>
       </c>
       <c r="D28">
-        <v>2901.828151559231</v>
+        <v>2901.8281515592312</v>
       </c>
       <c r="E28">
         <v>3082.678631259806</v>
@@ -1148,13 +1464,29 @@
         <v>9</v>
       </c>
       <c r="H28">
-        <v>2984.03291015625</v>
+        <v>2984.0329101562502</v>
       </c>
       <c r="I28">
         <v>2937.17626953125</v>
       </c>
-    </row>
-    <row r="29" spans="1:9">
+      <c r="J28">
+        <f t="shared" si="1"/>
+        <v>2984.0329101562502</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="2"/>
+        <v>2937.17626953125</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>45785</v>
       </c>
@@ -1162,13 +1494,13 @@
         <v>2930.599853515625</v>
       </c>
       <c r="C29">
-        <v>3074.458191345985</v>
+        <v>3074.4581913459851</v>
       </c>
       <c r="D29">
-        <v>2836.06437436996</v>
+        <v>2836.0643743699602</v>
       </c>
       <c r="E29">
-        <v>3074.458191345985</v>
+        <v>3074.4581913459851</v>
       </c>
       <c r="F29">
         <v>5343</v>
@@ -1177,13 +1509,29 @@
         <v>9</v>
       </c>
       <c r="H29">
-        <v>2963.48173828125</v>
+        <v>2963.4817382812498</v>
       </c>
       <c r="I29">
-        <v>2941.492016601563</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>2941.4920166015631</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="1"/>
+        <v>2963.4817382812498</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="2"/>
+        <v>2941.4920166015627</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>45786</v>
       </c>
@@ -1191,13 +1539,13 @@
         <v>2967.592041015625</v>
       </c>
       <c r="C30">
-        <v>3053.907044978683</v>
+        <v>3053.9070449786832</v>
       </c>
       <c r="D30">
-        <v>2918.269181608163</v>
+        <v>2918.2691816081629</v>
       </c>
       <c r="E30">
-        <v>3053.907044978683</v>
+        <v>3053.9070449786832</v>
       </c>
       <c r="F30">
         <v>11686</v>
@@ -1206,13 +1554,29 @@
         <v>9</v>
       </c>
       <c r="H30">
-        <v>2950.32900390625</v>
+        <v>2950.3290039062499</v>
       </c>
       <c r="I30">
-        <v>2955.055798339844</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>2955.0557983398439</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="1"/>
+        <v>2950.3290039062499</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="2"/>
+        <v>2955.0557983398439</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>45789</v>
       </c>
@@ -1223,7 +1587,7 @@
         <v>3103.229803899731</v>
       </c>
       <c r="D31">
-        <v>2889.497420054981</v>
+        <v>2889.4974200549809</v>
       </c>
       <c r="E31">
         <v>3037.465993485961</v>
@@ -1235,13 +1599,29 @@
         <v>9</v>
       </c>
       <c r="H31">
-        <v>2965.125830078125</v>
+        <v>2965.1258300781251</v>
       </c>
       <c r="I31">
-        <v>2978.073132324219</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>2978.0731323242189</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="1"/>
+        <v>2965.1258300781251</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="2"/>
+        <v>2978.0731323242189</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>45790</v>
       </c>
@@ -1249,13 +1629,13 @@
         <v>2934.710205078125</v>
       </c>
       <c r="C32">
-        <v>3033.355926257222</v>
+        <v>3033.3559262572221</v>
       </c>
       <c r="D32">
-        <v>2877.166867723652</v>
+        <v>2877.1668677236521</v>
       </c>
       <c r="E32">
-        <v>2959.371635372899</v>
+        <v>2959.3716353728992</v>
       </c>
       <c r="F32">
         <v>5076</v>
@@ -1264,13 +1644,29 @@
         <v>9</v>
       </c>
       <c r="H32">
-        <v>2947.0408203125</v>
+        <v>2947.0408203124998</v>
       </c>
       <c r="I32">
-        <v>2987.526684570313</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>2987.5266845703131</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="1"/>
+        <v>2947.0408203124998</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="2"/>
+        <v>2987.5266845703127</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>45791</v>
       </c>
@@ -1278,13 +1674,13 @@
         <v>2889.49755859375</v>
       </c>
       <c r="C33">
-        <v>2996.363755639891</v>
+        <v>2996.3637556398912</v>
       </c>
       <c r="D33">
-        <v>2868.946366854107</v>
+        <v>2868.9463668541071</v>
       </c>
       <c r="E33">
-        <v>2996.363755639891</v>
+        <v>2996.3637556398912</v>
       </c>
       <c r="F33">
         <v>17799</v>
@@ -1293,13 +1689,29 @@
         <v>9</v>
       </c>
       <c r="H33">
-        <v>2935.532177734375</v>
+        <v>2935.5321777343752</v>
       </c>
       <c r="I33">
-        <v>2999.446374511719</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>2999.4463745117191</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="1"/>
+        <v>2935.5321777343752</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="2"/>
+        <v>2999.4463745117187</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>45792</v>
       </c>
@@ -1307,13 +1719,13 @@
         <v>2844.284912109375</v>
       </c>
       <c r="C34">
-        <v>2955.261346541388</v>
+        <v>2955.2613465413879</v>
       </c>
       <c r="D34">
-        <v>2799.07229067411</v>
+        <v>2799.0722906741098</v>
       </c>
       <c r="E34">
-        <v>2955.261346541388</v>
+        <v>2955.2613465413879</v>
       </c>
       <c r="F34">
         <v>18458</v>
@@ -1322,13 +1734,29 @@
         <v>9</v>
       </c>
       <c r="H34">
-        <v>2918.269189453125</v>
+        <v>2918.2691894531249</v>
       </c>
       <c r="I34">
-        <v>3002.118029785156</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>3002.1180297851561</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="1"/>
+        <v>2918.2691894531249</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="2"/>
+        <v>3002.1180297851561</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>45793</v>
       </c>
@@ -1342,7 +1770,7 @@
         <v>2819.623558974848</v>
       </c>
       <c r="E35">
-        <v>2889.497612185594</v>
+        <v>2889.4976121855939</v>
       </c>
       <c r="F35">
         <v>14182</v>
@@ -1354,10 +1782,26 @@
         <v>2897.718017578125</v>
       </c>
       <c r="I35">
-        <v>2981.772351074219</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>2981.7723510742189</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="1"/>
+        <v>2897.718017578125</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="2"/>
+        <v>2981.7723510742189</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>45796</v>
       </c>
@@ -1368,10 +1812,10 @@
         <v>3000.47399398782</v>
       </c>
       <c r="D36">
-        <v>2827.843983374822</v>
+        <v>2827.8439833748221</v>
       </c>
       <c r="E36">
-        <v>2922.379465377178</v>
+        <v>2922.3794653771779</v>
       </c>
       <c r="F36">
         <v>9422</v>
@@ -1380,13 +1824,29 @@
         <v>9</v>
       </c>
       <c r="H36">
-        <v>2884.565283203125</v>
+        <v>2884.5652832031251</v>
       </c>
       <c r="I36">
-        <v>2953.00068359375</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>2953.0006835937502</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="1"/>
+        <v>2884.5652832031251</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="2"/>
+        <v>2953.0006835937502</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>45797</v>
       </c>
@@ -1394,13 +1854,13 @@
         <v>2992.25341796875</v>
       </c>
       <c r="C37">
-        <v>3000.473894391741</v>
+        <v>3000.4738943917409</v>
       </c>
       <c r="D37">
-        <v>2868.946271623884</v>
+        <v>2868.9462716238841</v>
       </c>
       <c r="E37">
-        <v>2868.946271623884</v>
+        <v>2868.9462716238841</v>
       </c>
       <c r="F37">
         <v>12569</v>
@@ -1409,13 +1869,29 @@
         <v>9</v>
       </c>
       <c r="H37">
-        <v>2896.07392578125</v>
+        <v>2896.0739257812502</v>
       </c>
       <c r="I37">
-        <v>2944.369177246094</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>2944.3691772460938</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="1"/>
+        <v>2896.0739257812502</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="2"/>
+        <v>2944.3691772460938</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>45798</v>
       </c>
@@ -1423,7 +1899,7 @@
         <v>3033.355712890625</v>
       </c>
       <c r="C38">
-        <v>3099.119522384189</v>
+        <v>3099.1195223841892</v>
       </c>
       <c r="D38">
         <v>2889.497379623454</v>
@@ -1438,13 +1914,29 @@
         <v>9</v>
       </c>
       <c r="H38">
-        <v>2924.845556640625</v>
+        <v>2924.8455566406251</v>
       </c>
       <c r="I38">
-        <v>2953.411694335938</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>2953.4116943359381</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="1"/>
+        <v>2924.8455566406251</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="2"/>
+        <v>2953.4116943359377</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>45799</v>
       </c>
@@ -1455,7 +1947,7 @@
         <v>3041.576330126818</v>
       </c>
       <c r="D39">
-        <v>2922.379419892118</v>
+        <v>2922.3794198921182</v>
       </c>
       <c r="E39">
         <v>3041.576330126818</v>
@@ -1467,13 +1959,29 @@
         <v>9</v>
       </c>
       <c r="H39">
-        <v>2949.506982421875</v>
+        <v>2949.5069824218749</v>
       </c>
       <c r="I39">
         <v>2962.865246582031</v>
       </c>
-    </row>
-    <row r="40" spans="1:9">
+      <c r="J39">
+        <f t="shared" si="1"/>
+        <v>2949.5069824218749</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="2"/>
+        <v>2962.8652465820314</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>45800</v>
       </c>
@@ -1481,13 +1989,13 @@
         <v>2914.158935546875</v>
       </c>
       <c r="C40">
-        <v>3041.576322009432</v>
+        <v>3041.5763220094318</v>
       </c>
       <c r="D40">
-        <v>2893.607744181947</v>
+        <v>2893.6077441819471</v>
       </c>
       <c r="E40">
-        <v>3041.576322009432</v>
+        <v>3041.5763220094318</v>
       </c>
       <c r="F40">
         <v>9179</v>
@@ -1496,13 +2004,29 @@
         <v>9</v>
       </c>
       <c r="H40">
-        <v>2959.371533203125</v>
+        <v>2959.3715332031252</v>
       </c>
       <c r="I40">
-        <v>2963.687292480469</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>2963.6872924804688</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="1"/>
+        <v>2959.3715332031252</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="2"/>
+        <v>2963.6872924804688</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>45803</v>
       </c>
@@ -1510,13 +2034,13 @@
         <v>2885.38720703125</v>
       </c>
       <c r="C41">
-        <v>3033.355781750801</v>
+        <v>3033.3557817508008</v>
       </c>
       <c r="D41">
         <v>2840.174586978053</v>
       </c>
       <c r="E41">
-        <v>2918.269112524483</v>
+        <v>2918.2691125244828</v>
       </c>
       <c r="F41">
         <v>10311</v>
@@ -1525,13 +2049,29 @@
         <v>9</v>
       </c>
       <c r="H41">
-        <v>2958.549462890625</v>
+        <v>2958.5494628906249</v>
       </c>
       <c r="I41">
-        <v>2957.72744140625</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>2957.7274414062499</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="1"/>
+        <v>2958.5494628906249</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="2"/>
+        <v>2957.7274414062499</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>45804</v>
       </c>
@@ -1539,13 +2079,13 @@
         <v>2794.9619140625</v>
       </c>
       <c r="C42">
-        <v>2885.38715245864</v>
+        <v>2885.3871524586398</v>
       </c>
       <c r="D42">
         <v>2762.080009191176</v>
       </c>
       <c r="E42">
-        <v>2885.38715245864</v>
+        <v>2885.3871524586398</v>
       </c>
       <c r="F42">
         <v>22884</v>
@@ -1554,13 +2094,29 @@
         <v>9</v>
       </c>
       <c r="H42">
-        <v>2919.091162109375</v>
+        <v>2919.0911621093751</v>
       </c>
       <c r="I42">
-        <v>2940.258923339844</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>2940.2589233398439</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="1"/>
+        <v>2919.0911621093751</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="2"/>
+        <v>2940.2589233398439</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>45805</v>
       </c>
@@ -1568,13 +2124,13 @@
         <v>2996.36376953125</v>
       </c>
       <c r="C43">
-        <v>3016.914961366169</v>
+        <v>3016.9149613661689</v>
       </c>
       <c r="D43">
-        <v>2770.300659347136</v>
+        <v>2770.3006593471359</v>
       </c>
       <c r="E43">
-        <v>2794.96208954904</v>
+        <v>2794.9620895490398</v>
       </c>
       <c r="F43">
         <v>25686</v>
@@ -1583,13 +2139,29 @@
         <v>9</v>
       </c>
       <c r="H43">
-        <v>2911.6927734375</v>
+        <v>2911.6927734374999</v>
       </c>
       <c r="I43">
         <v>2939.025854492188</v>
       </c>
-    </row>
-    <row r="44" spans="1:9">
+      <c r="J43">
+        <f t="shared" si="1"/>
+        <v>2911.6927734374999</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="2"/>
+        <v>2939.0258544921876</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>45806</v>
       </c>
@@ -1597,13 +2169,13 @@
         <v>2897.718017578125</v>
       </c>
       <c r="C44">
-        <v>3041.57635887633</v>
+        <v>3041.5763588763298</v>
       </c>
       <c r="D44">
-        <v>2881.277064286901</v>
+        <v>2881.2770642869009</v>
       </c>
       <c r="E44">
-        <v>3041.57635887633</v>
+        <v>3041.5763588763298</v>
       </c>
       <c r="F44">
         <v>13333</v>
@@ -1612,13 +2184,29 @@
         <v>9</v>
       </c>
       <c r="H44">
-        <v>2897.71796875</v>
+        <v>2897.7179687500002</v>
       </c>
       <c r="I44">
-        <v>2932.243969726563</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>2932.2439697265631</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="1"/>
+        <v>2897.7179687500002</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="2"/>
+        <v>2932.2439697265627</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>45807</v>
       </c>
@@ -1626,13 +2214,13 @@
         <v>2926.48974609375</v>
       </c>
       <c r="C45">
-        <v>2979.922845390406</v>
+        <v>2979.9228453904061</v>
       </c>
       <c r="D45">
-        <v>2881.277123611965</v>
+        <v>2881.2771236119652</v>
       </c>
       <c r="E45">
-        <v>2910.04879246401</v>
+        <v>2910.0487924640101</v>
       </c>
       <c r="F45">
         <v>5709</v>
@@ -1641,13 +2229,29 @@
         <v>9</v>
       </c>
       <c r="H45">
-        <v>2900.184130859375</v>
+        <v>2900.1841308593748</v>
       </c>
       <c r="I45">
-        <v>2926.900671386719</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>2926.9006713867188</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="1"/>
+        <v>2900.1841308593748</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="2"/>
+        <v>2926.9006713867188</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>45810</v>
       </c>
@@ -1655,13 +2259,13 @@
         <v>2868.9462890625</v>
       </c>
       <c r="C46">
-        <v>3016.914865575752</v>
+        <v>3016.9148655757522</v>
       </c>
       <c r="D46">
         <v>2819.623430224749</v>
       </c>
       <c r="E46">
-        <v>2926.489624373209</v>
+        <v>2926.4896243732092</v>
       </c>
       <c r="F46">
         <v>4523</v>
@@ -1670,13 +2274,29 @@
         <v>9</v>
       </c>
       <c r="H46">
-        <v>2896.895947265625</v>
+        <v>2896.8959472656252</v>
       </c>
       <c r="I46">
-        <v>2926.284130859375</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>2926.2841308593752</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="1"/>
+        <v>2896.8959472656252</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="2"/>
+        <v>2926.2841308593752</v>
+      </c>
+      <c r="L46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>45811</v>
       </c>
@@ -1684,13 +2304,13 @@
         <v>2877.166748046875</v>
       </c>
       <c r="C47">
-        <v>2951.151035853794</v>
+        <v>2951.1510358537939</v>
       </c>
       <c r="D47">
         <v>2819.623413085938</v>
       </c>
       <c r="E47">
-        <v>2951.151035853794</v>
+        <v>2951.1510358537939</v>
       </c>
       <c r="F47">
         <v>4995</v>
@@ -1702,10 +2322,26 @@
         <v>2913.3369140625</v>
       </c>
       <c r="I47">
-        <v>2918.885705566406</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>2918.8857055664062</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="1"/>
+        <v>2913.3369140625</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="2"/>
+        <v>2918.8857055664062</v>
+      </c>
+      <c r="L47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>45812</v>
       </c>
@@ -1713,10 +2349,10 @@
         <v>2897.718017578125</v>
       </c>
       <c r="C48">
-        <v>2910.048732546542</v>
+        <v>2910.0487325465419</v>
       </c>
       <c r="D48">
-        <v>2786.741582862367</v>
+        <v>2786.7415828623671</v>
       </c>
       <c r="E48">
         <v>2877.166825964096</v>
@@ -1728,13 +2364,29 @@
         <v>9</v>
       </c>
       <c r="H48">
-        <v>2893.607763671875</v>
+        <v>2893.6077636718751</v>
       </c>
       <c r="I48">
-        <v>2916.419567871094</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>2916.4195678710939</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="1"/>
+        <v>2893.6077636718751</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="2"/>
+        <v>2916.4195678710939</v>
+      </c>
+      <c r="L48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>45813</v>
       </c>
@@ -1745,10 +2397,10 @@
         <v>2905.938486793827</v>
       </c>
       <c r="D49">
-        <v>2803.182528986407</v>
+        <v>2803.1825289864069</v>
       </c>
       <c r="E49">
-        <v>2893.607771856936</v>
+        <v>2893.6077718569359</v>
       </c>
       <c r="F49">
         <v>10443</v>
@@ -1760,10 +2412,26 @@
         <v>2882.921142578125</v>
       </c>
       <c r="I49">
-        <v>2912.103820800781</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>2912.1038208007808</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="1"/>
+        <v>2882.921142578125</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="2"/>
+        <v>2912.1038208007813</v>
+      </c>
+      <c r="L49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>45814</v>
       </c>
@@ -1791,8 +2459,24 @@
       <c r="I50">
         <v>2904.499877929688</v>
       </c>
-    </row>
-    <row r="51" spans="1:9">
+      <c r="J50">
+        <f t="shared" si="1"/>
+        <v>2860.725830078125</v>
+      </c>
+      <c r="K50">
+        <f t="shared" si="2"/>
+        <v>2904.4998779296875</v>
+      </c>
+      <c r="L50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>45817</v>
       </c>
@@ -1806,7 +2490,7 @@
         <v>2712.757254046594</v>
       </c>
       <c r="E51">
-        <v>2831.954163694096</v>
+        <v>2831.9541636940962</v>
       </c>
       <c r="F51">
         <v>3978</v>
@@ -1815,13 +2499,29 @@
         <v>9</v>
       </c>
       <c r="H51">
-        <v>2836.064404296875</v>
+        <v>2836.0644042968752</v>
       </c>
       <c r="I51">
         <v>2894.018774414063</v>
       </c>
-    </row>
-    <row r="52" spans="1:9">
+      <c r="J51">
+        <f t="shared" si="1"/>
+        <v>2836.0644042968752</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="2"/>
+        <v>2894.0187744140626</v>
+      </c>
+      <c r="L51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>45818</v>
       </c>
@@ -1832,7 +2532,7 @@
         <v>2794.961966223108</v>
       </c>
       <c r="D52">
-        <v>2712.757202510664</v>
+        <v>2712.7572025106638</v>
       </c>
       <c r="E52">
         <v>2782.631251666241</v>
@@ -1847,10 +2547,26 @@
         <v>2814.691162109375</v>
       </c>
       <c r="I52">
-        <v>2885.798291015625</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>2885.7982910156252</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="1"/>
+        <v>2814.691162109375</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="2"/>
+        <v>2885.7982910156252</v>
+      </c>
+      <c r="L52">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>45819</v>
       </c>
@@ -1858,13 +2574,13 @@
         <v>2729.1982421875</v>
       </c>
       <c r="C53">
-        <v>2815.513246834996</v>
+        <v>2815.5132468349962</v>
       </c>
       <c r="D53">
-        <v>2712.75728892131</v>
+        <v>2712.7572889213102</v>
       </c>
       <c r="E53">
-        <v>2774.410863669522</v>
+        <v>2774.4108636695219</v>
       </c>
       <c r="F53">
         <v>7780</v>
@@ -1873,13 +2589,29 @@
         <v>9</v>
       </c>
       <c r="H53">
-        <v>2780.98720703125</v>
+        <v>2780.9872070312499</v>
       </c>
       <c r="I53">
         <v>2877.783325195312</v>
       </c>
-    </row>
-    <row r="54" spans="1:9">
+      <c r="J53">
+        <f t="shared" si="1"/>
+        <v>2780.9872070312499</v>
+      </c>
+      <c r="K53">
+        <f t="shared" si="2"/>
+        <v>2877.7833251953125</v>
+      </c>
+      <c r="L53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>45820</v>
       </c>
@@ -1887,10 +2619,10 @@
         <v>2692.2060546875</v>
       </c>
       <c r="C54">
-        <v>2799.072249224714</v>
+        <v>2799.0722492247141</v>
       </c>
       <c r="D54">
-        <v>2622.332004413168</v>
+        <v>2622.3320044131679</v>
       </c>
       <c r="E54">
         <v>2712.757245944656</v>
@@ -1902,13 +2634,29 @@
         <v>9</v>
       </c>
       <c r="H54">
-        <v>2750.571435546875</v>
+        <v>2750.5714355468749</v>
       </c>
       <c r="I54">
-        <v>2870.179382324219</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>2870.1793823242192</v>
+      </c>
+      <c r="J54">
+        <f t="shared" si="1"/>
+        <v>2750.5714355468749</v>
+      </c>
+      <c r="K54">
+        <f t="shared" si="2"/>
+        <v>2870.1793823242188</v>
+      </c>
+      <c r="L54">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>45821</v>
       </c>
@@ -1916,13 +2664,13 @@
         <v>2585.33984375</v>
       </c>
       <c r="C55">
-        <v>2753.859610989666</v>
+        <v>2753.8596109896662</v>
       </c>
       <c r="D55">
-        <v>2573.009129073927</v>
+        <v>2573.0091290739269</v>
       </c>
       <c r="E55">
-        <v>2688.095799383943</v>
+        <v>2688.0957993839429</v>
       </c>
       <c r="F55">
         <v>7689</v>
@@ -1931,13 +2679,29 @@
         <v>9</v>
       </c>
       <c r="H55">
-        <v>2704.536767578125</v>
+        <v>2704.5367675781249</v>
       </c>
       <c r="I55">
         <v>2856.204565429688</v>
       </c>
-    </row>
-    <row r="56" spans="1:9">
+      <c r="J55">
+        <f t="shared" si="1"/>
+        <v>2704.5367675781249</v>
+      </c>
+      <c r="K55">
+        <f t="shared" si="2"/>
+        <v>2856.2045654296876</v>
+      </c>
+      <c r="L55">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>45825</v>
       </c>
@@ -1948,7 +2712,7 @@
         <v>2601.780935058594</v>
       </c>
       <c r="D56">
-        <v>2388.048535970052</v>
+        <v>2388.0485359700519</v>
       </c>
       <c r="E56">
         <v>2601.780935058594</v>
@@ -1960,13 +2724,29 @@
         <v>9</v>
       </c>
       <c r="H56">
-        <v>2648.637548828125</v>
+        <v>2648.6375488281251</v>
       </c>
       <c r="I56">
         <v>2835.036840820313</v>
       </c>
-    </row>
-    <row r="57" spans="1:9">
+      <c r="J56">
+        <f t="shared" si="1"/>
+        <v>2648.6375488281251</v>
+      </c>
+      <c r="K56">
+        <f t="shared" si="2"/>
+        <v>2835.0368408203126</v>
+      </c>
+      <c r="L56">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>45826</v>
       </c>
@@ -1974,13 +2754,13 @@
         <v>2425.04052734375</v>
       </c>
       <c r="C57">
-        <v>2655.213865532309</v>
+        <v>2655.2138655323088</v>
       </c>
       <c r="D57">
-        <v>2383.938145524364</v>
+        <v>2383.9381455243638</v>
       </c>
       <c r="E57">
-        <v>2499.024814618644</v>
+        <v>2499.0248146186441</v>
       </c>
       <c r="F57">
         <v>12526</v>
@@ -1989,13 +2769,29 @@
         <v>9</v>
       </c>
       <c r="H57">
-        <v>2579.585546875</v>
+        <v>2579.5855468750001</v>
       </c>
       <c r="I57">
-        <v>2806.676196289062</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>2806.6761962890619</v>
+      </c>
+      <c r="J57">
+        <f t="shared" si="1"/>
+        <v>2579.5855468750001</v>
+      </c>
+      <c r="K57">
+        <f t="shared" si="2"/>
+        <v>2806.6761962890623</v>
+      </c>
+      <c r="L57">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>45827</v>
       </c>
@@ -2003,13 +2799,13 @@
         <v>2429.15087890625</v>
       </c>
       <c r="C58">
-        <v>2478.473739391656</v>
+        <v>2478.4737393916562</v>
       </c>
       <c r="D58">
-        <v>2359.276826551925</v>
+        <v>2359.2768265519248</v>
       </c>
       <c r="E58">
-        <v>2425.040640532466</v>
+        <v>2425.0406405324661</v>
       </c>
       <c r="F58">
         <v>9180</v>
@@ -2018,13 +2814,29 @@
         <v>9</v>
       </c>
       <c r="H58">
-        <v>2519.57607421875</v>
+        <v>2519.5760742187499</v>
       </c>
       <c r="I58">
-        <v>2776.465954589844</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>2776.4659545898439</v>
+      </c>
+      <c r="J58">
+        <f t="shared" si="1"/>
+        <v>2519.5760742187499</v>
+      </c>
+      <c r="K58">
+        <f t="shared" si="2"/>
+        <v>2776.4659545898439</v>
+      </c>
+      <c r="L58">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>45831</v>
       </c>
@@ -2035,10 +2847,10 @@
         <v>2462.03263331976</v>
       </c>
       <c r="D59">
-        <v>2277.071917961849</v>
+        <v>2277.0719179618491</v>
       </c>
       <c r="E59">
-        <v>2420.930252129113</v>
+        <v>2420.9302521291129</v>
       </c>
       <c r="F59">
         <v>11790</v>
@@ -2050,10 +2862,26 @@
         <v>2446.413818359375</v>
       </c>
       <c r="I59">
-        <v>2744.406091308594</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>2744.4060913085941</v>
+      </c>
+      <c r="J59">
+        <f t="shared" si="1"/>
+        <v>2446.413818359375</v>
+      </c>
+      <c r="K59">
+        <f t="shared" si="2"/>
+        <v>2744.4060913085937</v>
+      </c>
+      <c r="L59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>45832</v>
       </c>
@@ -2067,7 +2895,7 @@
         <v>2371.607537437525</v>
       </c>
       <c r="E60">
-        <v>2449.70206639994</v>
+        <v>2449.7020663999401</v>
       </c>
       <c r="F60">
         <v>9423</v>
@@ -2079,10 +2907,26 @@
         <v>2438.193359375</v>
       </c>
       <c r="I60">
-        <v>2725.910021972656</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>2725.9100219726561</v>
+      </c>
+      <c r="J60">
+        <f t="shared" si="1"/>
+        <v>2438.193359375</v>
+      </c>
+      <c r="K60">
+        <f t="shared" si="2"/>
+        <v>2725.9100219726561</v>
+      </c>
+      <c r="L60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>45833</v>
       </c>
@@ -2090,13 +2934,13 @@
         <v>2453.812255859375</v>
       </c>
       <c r="C61">
-        <v>2548.347736403371</v>
+        <v>2548.3477364033711</v>
       </c>
       <c r="D61">
-        <v>2416.820111298681</v>
+        <v>2416.8201112986808</v>
       </c>
       <c r="E61">
-        <v>2548.347736403371</v>
+        <v>2548.3477364033711</v>
       </c>
       <c r="F61">
         <v>9326</v>
@@ -2105,13 +2949,29 @@
         <v>9</v>
       </c>
       <c r="H61">
-        <v>2435.727197265625</v>
+        <v>2435.7271972656249</v>
       </c>
       <c r="I61">
         <v>2704.331274414063</v>
       </c>
-    </row>
-    <row r="62" spans="1:9">
+      <c r="J61">
+        <f t="shared" si="1"/>
+        <v>2435.7271972656249</v>
+      </c>
+      <c r="K61">
+        <f t="shared" si="2"/>
+        <v>2704.3312744140626</v>
+      </c>
+      <c r="L61">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>45834</v>
       </c>
@@ -2119,10 +2979,10 @@
         <v>2449.701904296875</v>
       </c>
       <c r="C62">
-        <v>2466.142856674706</v>
+        <v>2466.1428566747059</v>
       </c>
       <c r="D62">
-        <v>2301.733332896392</v>
+        <v>2301.7333328963919</v>
       </c>
       <c r="E62">
         <v>2425.040475730128</v>
@@ -2134,13 +2994,29 @@
         <v>9</v>
       </c>
       <c r="H62">
-        <v>2440.65947265625</v>
+        <v>2440.6594726562498</v>
       </c>
       <c r="I62">
-        <v>2687.068273925781</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>2687.0682739257809</v>
+      </c>
+      <c r="J62">
+        <f t="shared" si="1"/>
+        <v>2440.6594726562498</v>
+      </c>
+      <c r="K62">
+        <f t="shared" si="2"/>
+        <v>2687.0682739257813</v>
+      </c>
+      <c r="L62">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>45835</v>
       </c>
@@ -2148,13 +3024,13 @@
         <v>2441.4814453125</v>
       </c>
       <c r="C63">
-        <v>2511.355493410669</v>
+        <v>2511.3554934106692</v>
       </c>
       <c r="D63">
         <v>2342.835730350379</v>
       </c>
       <c r="E63">
-        <v>2400.379064078283</v>
+        <v>2400.3790640782831</v>
       </c>
       <c r="F63">
         <v>4871</v>
@@ -2163,13 +3039,29 @@
         <v>9</v>
       </c>
       <c r="H63">
-        <v>2443.1255859375</v>
+        <v>2443.1255859375001</v>
       </c>
       <c r="I63">
-        <v>2659.324157714844</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>2659.3241577148442</v>
+      </c>
+      <c r="J63">
+        <f t="shared" si="1"/>
+        <v>2443.1255859375001</v>
+      </c>
+      <c r="K63">
+        <f t="shared" si="2"/>
+        <v>2659.3241577148438</v>
+      </c>
+      <c r="L63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>45838</v>
       </c>
@@ -2177,13 +3069,13 @@
         <v>2388.04833984375</v>
       </c>
       <c r="C64">
-        <v>2453.812149546848</v>
+        <v>2453.8121495468481</v>
       </c>
       <c r="D64">
-        <v>2318.174292034208</v>
+        <v>2318.1742920342081</v>
       </c>
       <c r="E64">
-        <v>2453.812149546848</v>
+        <v>2453.8121495468481</v>
       </c>
       <c r="F64">
         <v>15175</v>
@@ -2195,10 +3087,26 @@
         <v>2455.456298828125</v>
       </c>
       <c r="I64">
-        <v>2633.840673828125</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>2633.8406738281251</v>
+      </c>
+      <c r="J64">
+        <f t="shared" si="1"/>
+        <v>2455.456298828125</v>
+      </c>
+      <c r="K64">
+        <f t="shared" si="2"/>
+        <v>2633.8406738281251</v>
+      </c>
+      <c r="L64">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>45839</v>
       </c>
@@ -2206,13 +3114,13 @@
         <v>2309.953857421875</v>
       </c>
       <c r="C65">
-        <v>2462.032670099116</v>
+        <v>2462.0326700991159</v>
       </c>
       <c r="D65">
-        <v>2268.851475617215</v>
+        <v>2268.8514756172149</v>
       </c>
       <c r="E65">
-        <v>2330.505048324205</v>
+        <v>2330.5050483242048</v>
       </c>
       <c r="F65">
         <v>24680</v>
@@ -2221,13 +3129,29 @@
         <v>9</v>
       </c>
       <c r="H65">
-        <v>2408.599560546875</v>
+        <v>2408.5995605468752</v>
       </c>
       <c r="I65">
-        <v>2603.013879394531</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>2603.0138793945312</v>
+      </c>
+      <c r="J65">
+        <f t="shared" si="1"/>
+        <v>2408.5995605468752</v>
+      </c>
+      <c r="K65">
+        <f t="shared" si="2"/>
+        <v>2603.0138793945312</v>
+      </c>
+      <c r="L65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>45840</v>
       </c>
@@ -2235,10 +3159,10 @@
         <v>2379.827880859375</v>
       </c>
       <c r="C66">
-        <v>2396.268833404172</v>
+        <v>2396.2688334041718</v>
       </c>
       <c r="D66">
-        <v>2285.292403726792</v>
+        <v>2285.2924037267921</v>
       </c>
       <c r="E66">
         <v>2289.402641862991</v>
@@ -2250,13 +3174,29 @@
         <v>9</v>
       </c>
       <c r="H66">
-        <v>2393.802685546875</v>
+        <v>2393.8026855468752</v>
       </c>
       <c r="I66">
-        <v>2578.557958984375</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>2578.5579589843751</v>
+      </c>
+      <c r="J66">
+        <f t="shared" si="1"/>
+        <v>2393.8026855468752</v>
+      </c>
+      <c r="K66">
+        <f t="shared" si="2"/>
+        <v>2578.5579589843751</v>
+      </c>
+      <c r="L66">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>45841</v>
       </c>
@@ -2264,13 +3204,13 @@
         <v>2412.7099609375</v>
       </c>
       <c r="C67">
-        <v>2433.261153109029</v>
+        <v>2433.2611531090288</v>
       </c>
       <c r="D67">
-        <v>2383.93829189736</v>
+        <v>2383.9382918973602</v>
       </c>
       <c r="E67">
-        <v>2433.261153109029</v>
+        <v>2433.2611531090288</v>
       </c>
       <c r="F67">
         <v>15254</v>
@@ -2282,10 +3222,26 @@
         <v>2386.404296875</v>
       </c>
       <c r="I67">
-        <v>2555.335119628906</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>2555.3351196289059</v>
+      </c>
+      <c r="J67">
+        <f t="shared" si="1"/>
+        <v>2386.404296875</v>
+      </c>
+      <c r="K67">
+        <f t="shared" si="2"/>
+        <v>2555.3351196289063</v>
+      </c>
+      <c r="L67">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <v>45842</v>
       </c>
@@ -2293,10 +3249,10 @@
         <v>2416.820068359375</v>
       </c>
       <c r="C68">
-        <v>2437.371259416852</v>
+        <v>2437.3712594168519</v>
       </c>
       <c r="D68">
-        <v>2388.048400878906</v>
+        <v>2388.0484008789058</v>
       </c>
       <c r="E68">
         <v>2416.820068359375</v>
@@ -2308,13 +3264,29 @@
         <v>9</v>
       </c>
       <c r="H68">
-        <v>2381.472021484375</v>
+        <v>2381.4720214843751</v>
       </c>
       <c r="I68">
-        <v>2531.290222167969</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>2531.2902221679692</v>
+      </c>
+      <c r="J68">
+        <f t="shared" si="1"/>
+        <v>2381.4720214843751</v>
+      </c>
+      <c r="K68">
+        <f t="shared" si="2"/>
+        <v>2531.2902221679688</v>
+      </c>
+      <c r="L68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <v>45845</v>
       </c>
@@ -2322,13 +3294,13 @@
         <v>2367.497314453125</v>
       </c>
       <c r="C69">
-        <v>2445.591843922933</v>
+        <v>2445.5918439229331</v>
       </c>
       <c r="D69">
         <v>2285.292546590169</v>
       </c>
       <c r="E69">
-        <v>2420.930413564046</v>
+        <v>2420.9304135640459</v>
       </c>
       <c r="F69">
         <v>10441</v>
@@ -2340,10 +3312,26 @@
         <v>2377.36181640625</v>
       </c>
       <c r="I69">
-        <v>2507.450842285156</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>2507.4508422851559</v>
+      </c>
+      <c r="J69">
+        <f t="shared" si="1"/>
+        <v>2377.36181640625</v>
+      </c>
+      <c r="K69">
+        <f t="shared" si="2"/>
+        <v>2507.4508422851563</v>
+      </c>
+      <c r="L69">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <v>45846</v>
       </c>
@@ -2354,10 +3342,10 @@
         <v>2425.04052734375</v>
       </c>
       <c r="D70">
-        <v>2314.064096431409</v>
+        <v>2314.0640964314089</v>
       </c>
       <c r="E70">
-        <v>2383.938145524364</v>
+        <v>2383.9381455243638</v>
       </c>
       <c r="F70">
         <v>14905</v>
@@ -2369,10 +3357,26 @@
         <v>2400.379150390625</v>
       </c>
       <c r="I70">
-        <v>2487.927209472656</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>2487.9272094726562</v>
+      </c>
+      <c r="J70">
+        <f t="shared" si="1"/>
+        <v>2400.379150390625</v>
+      </c>
+      <c r="K70">
+        <f t="shared" si="2"/>
+        <v>2487.9272094726562</v>
+      </c>
+      <c r="L70">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <v>45848</v>
       </c>
@@ -2383,10 +3387,10 @@
         <v>2457.922540684473</v>
       </c>
       <c r="D71">
-        <v>2301.733482915225</v>
+        <v>2301.7334829152251</v>
       </c>
       <c r="E71">
-        <v>2420.930395423335</v>
+        <v>2420.9303954233351</v>
       </c>
       <c r="F71">
         <v>5920</v>
@@ -2400,8 +3404,24 @@
       <c r="I71">
         <v>2469.431140136719</v>
       </c>
-    </row>
-    <row r="72" spans="1:9">
+      <c r="J71">
+        <f t="shared" si="1"/>
+        <v>2399.55712890625</v>
+      </c>
+      <c r="K71">
+        <f t="shared" si="2"/>
+        <v>2469.4311401367186</v>
+      </c>
+      <c r="L71">
+        <f t="shared" ref="L71:L120" si="4">J71-H71</f>
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <v>45849</v>
       </c>
@@ -2409,13 +3429,13 @@
         <v>2375.7177734375</v>
       </c>
       <c r="C72">
-        <v>2383.938250162197</v>
+        <v>2383.9382501621972</v>
       </c>
       <c r="D72">
-        <v>2301.733482915225</v>
+        <v>2301.7334829152251</v>
       </c>
       <c r="E72">
-        <v>2383.938250162197</v>
+        <v>2383.9382501621972</v>
       </c>
       <c r="F72">
         <v>5848</v>
@@ -2427,10 +3447,26 @@
         <v>2392.15869140625</v>
       </c>
       <c r="I72">
-        <v>2449.702001953125</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>2449.7020019531251</v>
+      </c>
+      <c r="J72">
+        <f t="shared" ref="J72:J121" si="5">AVERAGE(B68:B72)</f>
+        <v>2392.15869140625</v>
+      </c>
+      <c r="K72">
+        <f t="shared" si="2"/>
+        <v>2449.7020019531251</v>
+      </c>
+      <c r="L72">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <v>45852</v>
       </c>
@@ -2438,13 +3474,13 @@
         <v>2363.386962890625</v>
       </c>
       <c r="C73">
-        <v>2383.938153872282</v>
+        <v>2383.9381538722819</v>
       </c>
       <c r="D73">
         <v>2260.631007982337</v>
       </c>
       <c r="E73">
-        <v>2346.946010105299</v>
+        <v>2346.9460101052991</v>
       </c>
       <c r="F73">
         <v>7975</v>
@@ -2453,13 +3489,29 @@
         <v>9</v>
       </c>
       <c r="H73">
-        <v>2381.4720703125</v>
+        <v>2381.4720703124999</v>
       </c>
       <c r="I73">
-        <v>2431.411437988281</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>2431.4114379882808</v>
+      </c>
+      <c r="J73">
+        <f t="shared" si="5"/>
+        <v>2381.4720703124999</v>
+      </c>
+      <c r="K73">
+        <f t="shared" si="2"/>
+        <v>2431.4114379882813</v>
+      </c>
+      <c r="L73">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <v>45853</v>
       </c>
@@ -2470,10 +3522,10 @@
         <v>2425.040670255335</v>
       </c>
       <c r="D74">
-        <v>2301.733517530488</v>
+        <v>2301.7335175304879</v>
       </c>
       <c r="E74">
-        <v>2363.387093892912</v>
+        <v>2363.3870938929122</v>
       </c>
       <c r="F74">
         <v>11088</v>
@@ -2482,13 +3534,29 @@
         <v>9</v>
       </c>
       <c r="H74">
-        <v>2379.827978515625</v>
+        <v>2379.8279785156251</v>
       </c>
       <c r="I74">
-        <v>2414.764978027344</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>2414.7649780273441</v>
+      </c>
+      <c r="J74">
+        <f t="shared" si="5"/>
+        <v>2379.8279785156251</v>
+      </c>
+      <c r="K74">
+        <f t="shared" si="2"/>
+        <v>2414.7649780273437</v>
+      </c>
+      <c r="L74">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <v>45854</v>
       </c>
@@ -2496,13 +3564,13 @@
         <v>2338.7255859375</v>
       </c>
       <c r="C75">
-        <v>2404.489398547342</v>
+        <v>2404.4893985473418</v>
       </c>
       <c r="D75">
-        <v>2301.733441344464</v>
+        <v>2301.7334413444642</v>
       </c>
       <c r="E75">
-        <v>2346.94606251373</v>
+        <v>2346.9460625137299</v>
       </c>
       <c r="F75">
         <v>5730</v>
@@ -2511,13 +3579,29 @@
         <v>9</v>
       </c>
       <c r="H75">
-        <v>2362.564990234375</v>
+        <v>2362.5649902343748</v>
       </c>
       <c r="I75">
-        <v>2402.434265136719</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>2402.4342651367192</v>
+      </c>
+      <c r="J75">
+        <f t="shared" si="5"/>
+        <v>2362.5649902343748</v>
+      </c>
+      <c r="K75">
+        <f t="shared" si="2"/>
+        <v>2402.4342651367188</v>
+      </c>
+      <c r="L75">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <v>45855</v>
       </c>
@@ -2525,13 +3609,13 @@
         <v>2359.27685546875</v>
       </c>
       <c r="C76">
-        <v>2383.938286013719</v>
+        <v>2383.9382860137189</v>
       </c>
       <c r="D76">
-        <v>2301.733517530488</v>
+        <v>2301.7335175304879</v>
       </c>
       <c r="E76">
-        <v>2383.938286013719</v>
+        <v>2383.9382860137189</v>
       </c>
       <c r="F76">
         <v>5661</v>
@@ -2540,13 +3624,29 @@
         <v>9</v>
       </c>
       <c r="H76">
-        <v>2359.276806640625</v>
+        <v>2359.2768066406252</v>
       </c>
       <c r="I76">
-        <v>2397.090954589844</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>2397.0909545898439</v>
+      </c>
+      <c r="J76">
+        <f t="shared" si="5"/>
+        <v>2359.2768066406252</v>
+      </c>
+      <c r="K76">
+        <f t="shared" si="2"/>
+        <v>2397.0909545898439</v>
+      </c>
+      <c r="L76">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <v>45856</v>
       </c>
@@ -2554,13 +3654,13 @@
         <v>2445.591796875</v>
       </c>
       <c r="C77">
-        <v>2536.017039784664</v>
+        <v>2536.0170397846641</v>
       </c>
       <c r="D77">
-        <v>2351.056315651261</v>
+        <v>2351.0563156512608</v>
       </c>
       <c r="E77">
-        <v>2388.048460477941</v>
+        <v>2388.0484604779408</v>
       </c>
       <c r="F77">
         <v>13184</v>
@@ -2569,13 +3669,29 @@
         <v>9</v>
       </c>
       <c r="H77">
-        <v>2373.251611328125</v>
+        <v>2373.2516113281249</v>
       </c>
       <c r="I77">
-        <v>2398.118518066406</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>2398.1185180664061</v>
+      </c>
+      <c r="J77">
+        <f t="shared" si="5"/>
+        <v>2373.2516113281249</v>
+      </c>
+      <c r="K77">
+        <f t="shared" si="2"/>
+        <v>2398.1185180664061</v>
+      </c>
+      <c r="L77">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <v>45859</v>
       </c>
@@ -2583,13 +3699,13 @@
         <v>2367.497314453125</v>
       </c>
       <c r="C78">
-        <v>2519.576134999593</v>
+        <v>2519.5761349995928</v>
       </c>
       <c r="D78">
-        <v>2334.615407307943</v>
+        <v>2334.6154073079429</v>
       </c>
       <c r="E78">
-        <v>2466.143035888672</v>
+        <v>2466.1430358886719</v>
       </c>
       <c r="F78">
         <v>15233</v>
@@ -2598,13 +3714,29 @@
         <v>9</v>
       </c>
       <c r="H78">
-        <v>2374.073681640625</v>
+        <v>2374.0736816406252</v>
       </c>
       <c r="I78">
-        <v>2395.03583984375</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>2395.0358398437502</v>
+      </c>
+      <c r="J78">
+        <f t="shared" si="5"/>
+        <v>2374.0736816406252</v>
+      </c>
+      <c r="K78">
+        <f t="shared" si="2"/>
+        <v>2395.0358398437502</v>
+      </c>
+      <c r="L78">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <v>45860</v>
       </c>
@@ -2615,10 +3747,10 @@
         <v>2375.717821479484</v>
       </c>
       <c r="D79">
-        <v>2289.402814124693</v>
+        <v>2289.4028141246931</v>
       </c>
       <c r="E79">
-        <v>2342.835913915754</v>
+        <v>2342.8359139157542</v>
       </c>
       <c r="F79">
         <v>9158</v>
@@ -2627,13 +3759,29 @@
         <v>9</v>
       </c>
       <c r="H79">
-        <v>2361.74296875</v>
+        <v>2361.7429687499998</v>
       </c>
       <c r="I79">
-        <v>2393.597265625</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>2393.5972656250001</v>
+      </c>
+      <c r="J79">
+        <f t="shared" si="5"/>
+        <v>2361.7429687499998</v>
+      </c>
+      <c r="K79">
+        <f t="shared" si="2"/>
+        <v>2393.5972656250001</v>
+      </c>
+      <c r="L79">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <v>45861</v>
       </c>
@@ -2641,13 +3789,13 @@
         <v>2404.4892578125</v>
       </c>
       <c r="C80">
-        <v>2482.583780715812</v>
+        <v>2482.5837807158118</v>
       </c>
       <c r="D80">
-        <v>2264.741164196047</v>
+        <v>2264.7411641960471</v>
       </c>
       <c r="E80">
-        <v>2338.725449051816</v>
+        <v>2338.7254490518162</v>
       </c>
       <c r="F80">
         <v>13452</v>
@@ -2656,13 +3804,29 @@
         <v>9</v>
       </c>
       <c r="H80">
-        <v>2374.895703125</v>
+        <v>2374.8957031250002</v>
       </c>
       <c r="I80">
         <v>2386.609851074219</v>
       </c>
-    </row>
-    <row r="81" spans="1:9">
+      <c r="J80">
+        <f t="shared" si="5"/>
+        <v>2374.8957031250002</v>
+      </c>
+      <c r="K80">
+        <f t="shared" si="2"/>
+        <v>2386.6098510742186</v>
+      </c>
+      <c r="L80">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <v>45862</v>
       </c>
@@ -2673,10 +3837,10 @@
         <v>2441.481611941585</v>
       </c>
       <c r="D81">
-        <v>2322.284698227266</v>
+        <v>2322.2846982272658</v>
       </c>
       <c r="E81">
-        <v>2404.489466306107</v>
+        <v>2404.4894663061068</v>
       </c>
       <c r="F81">
         <v>7755</v>
@@ -2685,13 +3849,29 @@
         <v>9</v>
       </c>
       <c r="H81">
-        <v>2387.226416015625</v>
+        <v>2387.2264160156251</v>
       </c>
       <c r="I81">
-        <v>2384.965759277344</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>2384.9657592773442</v>
+      </c>
+      <c r="J81">
+        <f t="shared" si="5"/>
+        <v>2387.2264160156251</v>
+      </c>
+      <c r="K81">
+        <f t="shared" si="2"/>
+        <v>2384.9657592773438</v>
+      </c>
+      <c r="L81">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <v>45863</v>
       </c>
@@ -2699,13 +3879,13 @@
         <v>2503.135009765625</v>
       </c>
       <c r="C82">
-        <v>2507.245247876899</v>
+        <v>2507.2452478768992</v>
       </c>
       <c r="D82">
-        <v>2388.048342649964</v>
+        <v>2388.0483426499641</v>
       </c>
       <c r="E82">
-        <v>2429.1507237627</v>
+        <v>2429.1507237627002</v>
       </c>
       <c r="F82">
         <v>19545</v>
@@ -2714,13 +3894,29 @@
         <v>9</v>
       </c>
       <c r="H82">
-        <v>2398.73505859375</v>
+        <v>2398.7350585937502</v>
       </c>
       <c r="I82">
-        <v>2387.637414550781</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>2387.6374145507812</v>
+      </c>
+      <c r="J82">
+        <f t="shared" si="5"/>
+        <v>2398.7350585937502</v>
+      </c>
+      <c r="K82">
+        <f t="shared" si="2"/>
+        <v>2387.6374145507812</v>
+      </c>
+      <c r="L82">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <v>45866</v>
       </c>
@@ -2728,7 +3924,7 @@
         <v>2593.560302734375</v>
       </c>
       <c r="C83">
-        <v>2688.095781280953</v>
+        <v>2688.0957812809529</v>
       </c>
       <c r="D83">
         <v>2531.906729769215</v>
@@ -2743,13 +3939,29 @@
         <v>9</v>
       </c>
       <c r="H83">
-        <v>2443.94765625</v>
+        <v>2443.9476562499999</v>
       </c>
       <c r="I83">
-        <v>2395.241357421875</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>2395.2413574218749</v>
+      </c>
+      <c r="J83">
+        <f t="shared" si="5"/>
+        <v>2443.9476562499999</v>
+      </c>
+      <c r="K83">
+        <f t="shared" si="2"/>
+        <v>2395.2413574218749</v>
+      </c>
+      <c r="L83">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M83">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <v>45867</v>
       </c>
@@ -2760,10 +3972,10 @@
         <v>2696.316239632702</v>
       </c>
       <c r="D84">
-        <v>2466.142902103081</v>
+        <v>2466.1429021030808</v>
       </c>
       <c r="E84">
-        <v>2605.890999888922</v>
+        <v>2605.8909998889221</v>
       </c>
       <c r="F84">
         <v>26113</v>
@@ -2772,13 +3984,29 @@
         <v>9</v>
       </c>
       <c r="H84">
-        <v>2504.779150390625</v>
+        <v>2504.7791503906251</v>
       </c>
       <c r="I84">
         <v>2405.927978515625</v>
       </c>
-    </row>
-    <row r="85" spans="1:9">
+      <c r="J84">
+        <f t="shared" si="5"/>
+        <v>2504.7791503906251</v>
+      </c>
+      <c r="K84">
+        <f t="shared" si="2"/>
+        <v>2405.927978515625</v>
+      </c>
+      <c r="L84">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M84">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <v>45868</v>
       </c>
@@ -2789,7 +4017,7 @@
         <v>2638.772968367035</v>
       </c>
       <c r="D85">
-        <v>2499.024867238562</v>
+        <v>2499.0248672385619</v>
       </c>
       <c r="E85">
         <v>2597.67058568219</v>
@@ -2801,13 +4029,29 @@
         <v>9</v>
       </c>
       <c r="H85">
-        <v>2526.974462890625</v>
+        <v>2526.9744628906251</v>
       </c>
       <c r="I85">
-        <v>2416.203576660156</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>2416.2035766601562</v>
+      </c>
+      <c r="J85">
+        <f t="shared" si="5"/>
+        <v>2526.9744628906251</v>
+      </c>
+      <c r="K85">
+        <f t="shared" si="2"/>
+        <v>2416.2035766601562</v>
+      </c>
+      <c r="L85">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M85">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <v>45869</v>
       </c>
@@ -2815,13 +4059,13 @@
         <v>2527.796630859375</v>
       </c>
       <c r="C86">
-        <v>2638.773068311738</v>
+        <v>2638.7730683117379</v>
       </c>
       <c r="D86">
-        <v>2466.143054496951</v>
+        <v>2466.1430544969512</v>
       </c>
       <c r="E86">
-        <v>2577.119491949314</v>
+        <v>2577.1194919493141</v>
       </c>
       <c r="F86">
         <v>18794</v>
@@ -2830,13 +4074,29 @@
         <v>9</v>
       </c>
       <c r="H86">
-        <v>2548.347705078125</v>
+        <v>2548.3477050781248</v>
       </c>
       <c r="I86">
-        <v>2423.602014160156</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>2423.6020141601562</v>
+      </c>
+      <c r="J86">
+        <f t="shared" si="5"/>
+        <v>2548.3477050781248</v>
+      </c>
+      <c r="K86">
+        <f t="shared" ref="K86:K121" si="6">AVERAGE(B67:B86)</f>
+        <v>2423.6020141601562</v>
+      </c>
+      <c r="L86">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M86">
+        <f t="shared" ref="M86:M120" si="7">I86-K86</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <v>45870</v>
       </c>
@@ -2844,10 +4104,10 @@
         <v>2482.583984375</v>
       </c>
       <c r="C87">
-        <v>2564.788752069537</v>
+        <v>2564.7887520695372</v>
       </c>
       <c r="D87">
-        <v>2433.261123758278</v>
+        <v>2433.2611237582778</v>
       </c>
       <c r="E87">
         <v>2519.576129837541</v>
@@ -2859,13 +4119,29 @@
         <v>9</v>
       </c>
       <c r="H87">
-        <v>2544.2375</v>
+        <v>2544.2375000000002</v>
       </c>
       <c r="I87">
         <v>2427.095715332031</v>
       </c>
-    </row>
-    <row r="88" spans="1:9">
+      <c r="J87">
+        <f t="shared" si="5"/>
+        <v>2544.2375000000002</v>
+      </c>
+      <c r="K87">
+        <f t="shared" si="6"/>
+        <v>2427.0957153320314</v>
+      </c>
+      <c r="L87">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M87">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <v>45873</v>
       </c>
@@ -2873,7 +4149,7 @@
         <v>2556.568115234375</v>
       </c>
       <c r="C88">
-        <v>2610.001210890399</v>
+        <v>2610.0012108903989</v>
       </c>
       <c r="D88">
         <v>2466.142876431873</v>
@@ -2888,13 +4164,29 @@
         <v>9</v>
       </c>
       <c r="H88">
-        <v>2536.8390625</v>
+        <v>2536.8390625000002</v>
       </c>
       <c r="I88">
-        <v>2434.083117675781</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>2434.0831176757811</v>
+      </c>
+      <c r="J88">
+        <f t="shared" si="5"/>
+        <v>2536.8390625000002</v>
+      </c>
+      <c r="K88">
+        <f t="shared" si="6"/>
+        <v>2434.0831176757811</v>
+      </c>
+      <c r="L88">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M88">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <v>45874</v>
       </c>
@@ -2905,10 +4197,10 @@
         <v>2610.001399342606</v>
       </c>
       <c r="D89">
-        <v>2466.143054496951</v>
+        <v>2466.1430544969512</v>
       </c>
       <c r="E89">
-        <v>2478.473769769436</v>
+        <v>2478.4737697694359</v>
       </c>
       <c r="F89">
         <v>15989</v>
@@ -2920,10 +4212,26 @@
         <v>2522.042236328125</v>
       </c>
       <c r="I89">
-        <v>2442.098083496094</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>2442.0980834960942</v>
+      </c>
+      <c r="J89">
+        <f t="shared" si="5"/>
+        <v>2522.042236328125</v>
+      </c>
+      <c r="K89">
+        <f t="shared" si="6"/>
+        <v>2442.0980834960938</v>
+      </c>
+      <c r="L89">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M89">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <v>45875</v>
       </c>
@@ -2931,7 +4239,7 @@
         <v>2610.001220703125</v>
       </c>
       <c r="C90">
-        <v>2618.221696988804</v>
+        <v>2618.2216969888041</v>
       </c>
       <c r="D90">
         <v>2540.127172274852</v>
@@ -2946,13 +4254,29 @@
         <v>9</v>
       </c>
       <c r="H90">
-        <v>2540.94931640625</v>
+        <v>2540.9493164062501</v>
       </c>
       <c r="I90">
-        <v>2451.346118164062</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>2451.3461181640619</v>
+      </c>
+      <c r="J90">
+        <f t="shared" si="5"/>
+        <v>2540.9493164062501</v>
+      </c>
+      <c r="K90">
+        <f t="shared" si="6"/>
+        <v>2451.3461181640623</v>
+      </c>
+      <c r="L90">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M90">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <v>45876</v>
       </c>
@@ -2960,13 +4284,13 @@
         <v>2671.65478515625</v>
       </c>
       <c r="C91">
-        <v>2683.985499549279</v>
+        <v>2683.9854995492792</v>
       </c>
       <c r="D91">
         <v>2474.363354867789</v>
       </c>
       <c r="E91">
-        <v>2618.221689453125</v>
+        <v>2618.2216894531248</v>
       </c>
       <c r="F91">
         <v>30898</v>
@@ -2978,10 +4302,26 @@
         <v>2569.720947265625</v>
       </c>
       <c r="I91">
-        <v>2466.14296875</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>2466.1429687499999</v>
+      </c>
+      <c r="J91">
+        <f t="shared" si="5"/>
+        <v>2569.720947265625</v>
+      </c>
+      <c r="K91">
+        <f t="shared" si="6"/>
+        <v>2466.1429687499999</v>
+      </c>
+      <c r="L91">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M91">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <v>45877</v>
       </c>
@@ -3004,13 +4344,29 @@
         <v>9</v>
       </c>
       <c r="H92">
-        <v>2583.695751953125</v>
+        <v>2583.6957519531252</v>
       </c>
       <c r="I92">
         <v>2474.97998046875</v>
       </c>
-    </row>
-    <row r="93" spans="1:9">
+      <c r="J92">
+        <f t="shared" si="5"/>
+        <v>2583.6957519531252</v>
+      </c>
+      <c r="K92">
+        <f t="shared" si="6"/>
+        <v>2474.97998046875</v>
+      </c>
+      <c r="L92">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M92">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
         <v>45880</v>
       </c>
@@ -3024,7 +4380,7 @@
         <v>2474.363428435257</v>
       </c>
       <c r="E93">
-        <v>2564.788670005981</v>
+        <v>2564.7886700059812</v>
       </c>
       <c r="F93">
         <v>6119</v>
@@ -3033,13 +4389,29 @@
         <v>9</v>
       </c>
       <c r="H93">
-        <v>2587.806005859375</v>
+        <v>2587.8060058593751</v>
       </c>
       <c r="I93">
-        <v>2485.6666015625</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>2485.6666015625001</v>
+      </c>
+      <c r="J93">
+        <f t="shared" si="5"/>
+        <v>2587.8060058593751</v>
+      </c>
+      <c r="K93">
+        <f t="shared" si="6"/>
+        <v>2485.6666015625001</v>
+      </c>
+      <c r="L93">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M93">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
         <v>45881</v>
       </c>
@@ -3047,10 +4419,10 @@
         <v>2577.119384765625</v>
       </c>
       <c r="C94">
-        <v>2614.111529044557</v>
+        <v>2614.1115290445568</v>
       </c>
       <c r="D94">
-        <v>2536.017002233478</v>
+        <v>2536.0170022334778</v>
       </c>
       <c r="E94">
         <v>2548.347716993122</v>
@@ -3062,13 +4434,29 @@
         <v>9</v>
       </c>
       <c r="H94">
-        <v>2597.670556640625</v>
+        <v>2597.6705566406249</v>
       </c>
       <c r="I94">
-        <v>2496.558728027344</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>2496.5587280273439</v>
+      </c>
+      <c r="J94">
+        <f t="shared" si="5"/>
+        <v>2597.6705566406249</v>
+      </c>
+      <c r="K94">
+        <f t="shared" si="6"/>
+        <v>2496.5587280273439</v>
+      </c>
+      <c r="L94">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M94">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
         <v>45882</v>
       </c>
@@ -3079,10 +4467,10 @@
         <v>2646.993426493791</v>
       </c>
       <c r="D95">
-        <v>2482.583896897903</v>
+        <v>2482.5838968979028</v>
       </c>
       <c r="E95">
-        <v>2573.009138175641</v>
+        <v>2573.0091381756411</v>
       </c>
       <c r="F95">
         <v>6495</v>
@@ -3091,13 +4479,29 @@
         <v>9</v>
       </c>
       <c r="H95">
-        <v>2580.407568359375</v>
+        <v>2580.4075683593751</v>
       </c>
       <c r="I95">
         <v>2505.806762695312</v>
       </c>
-    </row>
-    <row r="96" spans="1:9">
+      <c r="J95">
+        <f t="shared" si="5"/>
+        <v>2580.4075683593751</v>
+      </c>
+      <c r="K95">
+        <f t="shared" si="6"/>
+        <v>2505.8067626953125</v>
+      </c>
+      <c r="L95">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M95">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
         <v>45883</v>
       </c>
@@ -3105,13 +4509,13 @@
         <v>2408.599609375</v>
       </c>
       <c r="C96">
-        <v>2581.229615507679</v>
+        <v>2581.2296155076788</v>
       </c>
       <c r="D96">
-        <v>2363.386988721203</v>
+        <v>2363.3869887212031</v>
       </c>
       <c r="E96">
-        <v>2519.576041888865</v>
+        <v>2519.5760418888649</v>
       </c>
       <c r="F96">
         <v>10658</v>
@@ -3120,13 +4524,29 @@
         <v>9</v>
       </c>
       <c r="H96">
-        <v>2527.796533203125</v>
+        <v>2527.7965332031249</v>
       </c>
       <c r="I96">
-        <v>2508.272900390625</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>2508.2729003906252</v>
+      </c>
+      <c r="J96">
+        <f t="shared" si="5"/>
+        <v>2527.7965332031249</v>
+      </c>
+      <c r="K96">
+        <f t="shared" si="6"/>
+        <v>2508.2729003906252</v>
+      </c>
+      <c r="L96">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M96">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
         <v>45887</v>
       </c>
@@ -3134,7 +4554,7 @@
         <v>2400.379150390625</v>
       </c>
       <c r="C97">
-        <v>2531.906775069563</v>
+        <v>2531.9067750695631</v>
       </c>
       <c r="D97">
         <v>2363.387005949673</v>
@@ -3149,13 +4569,29 @@
         <v>9</v>
       </c>
       <c r="H97">
-        <v>2497.38076171875</v>
+        <v>2497.3807617187499</v>
       </c>
       <c r="I97">
-        <v>2506.012268066406</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>2506.0122680664058</v>
+      </c>
+      <c r="J97">
+        <f t="shared" si="5"/>
+        <v>2497.3807617187499</v>
+      </c>
+      <c r="K97">
+        <f t="shared" si="6"/>
+        <v>2506.0122680664063</v>
+      </c>
+      <c r="L97">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M97">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
         <v>45888</v>
       </c>
@@ -3163,7 +4599,7 @@
         <v>2330.505126953125</v>
       </c>
       <c r="C98">
-        <v>2466.142991484788</v>
+        <v>2466.1429914847881</v>
       </c>
       <c r="D98">
         <v>2326.394888633984</v>
@@ -3178,13 +4614,29 @@
         <v>9</v>
       </c>
       <c r="H98">
-        <v>2448.05791015625</v>
+        <v>2448.0579101562498</v>
       </c>
       <c r="I98">
-        <v>2504.162658691406</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>2504.1626586914058</v>
+      </c>
+      <c r="J98">
+        <f t="shared" si="5"/>
+        <v>2448.0579101562498</v>
+      </c>
+      <c r="K98">
+        <f t="shared" si="6"/>
+        <v>2504.1626586914063</v>
+      </c>
+      <c r="L98">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M98">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
         <v>45889</v>
       </c>
@@ -3192,13 +4644,13 @@
         <v>2351.056396484375</v>
       </c>
       <c r="C99">
-        <v>2449.702119413789</v>
+        <v>2449.7021194137892</v>
       </c>
       <c r="D99">
         <v>2330.505204207413</v>
       </c>
       <c r="E99">
-        <v>2379.828065672121</v>
+        <v>2379.8280656721208</v>
       </c>
       <c r="F99">
         <v>8102</v>
@@ -3207,13 +4659,29 @@
         <v>9</v>
       </c>
       <c r="H99">
-        <v>2402.8453125</v>
+        <v>2402.8453125000001</v>
       </c>
       <c r="I99">
-        <v>2506.834313964844</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>2506.8343139648441</v>
+      </c>
+      <c r="J99">
+        <f t="shared" si="5"/>
+        <v>2402.8453125000001</v>
+      </c>
+      <c r="K99">
+        <f t="shared" si="6"/>
+        <v>2506.8343139648437</v>
+      </c>
+      <c r="L99">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M99">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
         <v>45890</v>
       </c>
@@ -3221,13 +4689,13 @@
         <v>2375.7177734375</v>
       </c>
       <c r="C100">
-        <v>2466.14301740917</v>
+        <v>2466.1430174091702</v>
       </c>
       <c r="D100">
         <v>2326.394913089317</v>
       </c>
       <c r="E100">
-        <v>2383.938250162197</v>
+        <v>2383.9382501621972</v>
       </c>
       <c r="F100">
         <v>5367</v>
@@ -3236,13 +4704,29 @@
         <v>9</v>
       </c>
       <c r="H100">
-        <v>2373.251611328125</v>
+        <v>2373.2516113281249</v>
       </c>
       <c r="I100">
         <v>2505.395739746094</v>
       </c>
-    </row>
-    <row r="101" spans="1:9">
+      <c r="J100">
+        <f t="shared" si="5"/>
+        <v>2373.2516113281249</v>
+      </c>
+      <c r="K100">
+        <f t="shared" si="6"/>
+        <v>2505.3957397460936</v>
+      </c>
+      <c r="L100">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M100">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
         <v>45891</v>
       </c>
@@ -3250,13 +4734,13 @@
         <v>2367.497314453125</v>
       </c>
       <c r="C101">
-        <v>2433.26112874349</v>
+        <v>2433.2611287434902</v>
       </c>
       <c r="D101">
-        <v>2305.843738555908</v>
+        <v>2305.8437385559082</v>
       </c>
       <c r="E101">
-        <v>2433.26112874349</v>
+        <v>2433.2611287434902</v>
       </c>
       <c r="F101">
         <v>6613</v>
@@ -3265,13 +4749,29 @@
         <v>9</v>
       </c>
       <c r="H101">
-        <v>2365.03115234375</v>
+        <v>2365.0311523437499</v>
       </c>
       <c r="I101">
-        <v>2502.724084472656</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>2502.7240844726562</v>
+      </c>
+      <c r="J101">
+        <f t="shared" si="5"/>
+        <v>2365.0311523437499</v>
+      </c>
+      <c r="K101">
+        <f t="shared" si="6"/>
+        <v>2502.7240844726562</v>
+      </c>
+      <c r="L101">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M101">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
         <v>45894</v>
       </c>
@@ -3279,13 +4779,13 @@
         <v>2227.7490234375</v>
       </c>
       <c r="C102">
-        <v>2404.489259614276</v>
+        <v>2404.4892596142759</v>
       </c>
       <c r="D102">
-        <v>2219.528547336255</v>
+        <v>2219.5285473362551</v>
       </c>
       <c r="E102">
-        <v>2371.607355209294</v>
+        <v>2371.6073552092939</v>
       </c>
       <c r="F102">
         <v>16204</v>
@@ -3297,10 +4797,26 @@
         <v>2330.505126953125</v>
       </c>
       <c r="I102">
-        <v>2488.95478515625</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>2488.9547851562502</v>
+      </c>
+      <c r="J102">
+        <f t="shared" si="5"/>
+        <v>2330.505126953125</v>
+      </c>
+      <c r="K102">
+        <f t="shared" si="6"/>
+        <v>2488.9547851562502</v>
+      </c>
+      <c r="L102">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M102">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
         <v>45895</v>
       </c>
@@ -3308,13 +4824,13 @@
         <v>2404.4892578125</v>
       </c>
       <c r="C103">
-        <v>2507.245209001068</v>
+        <v>2507.2452090010679</v>
       </c>
       <c r="D103">
         <v>2120.882832532051</v>
       </c>
       <c r="E103">
-        <v>2260.630926148504</v>
+        <v>2260.6309261485039</v>
       </c>
       <c r="F103">
         <v>11534</v>
@@ -3323,13 +4839,29 @@
         <v>9</v>
       </c>
       <c r="H103">
-        <v>2345.301953125</v>
+        <v>2345.3019531250002</v>
       </c>
       <c r="I103">
         <v>2479.501232910156</v>
       </c>
-    </row>
-    <row r="104" spans="1:9">
+      <c r="J103">
+        <f t="shared" si="5"/>
+        <v>2345.3019531250002</v>
+      </c>
+      <c r="K103">
+        <f t="shared" si="6"/>
+        <v>2479.5012329101564</v>
+      </c>
+      <c r="L103">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M103">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
         <v>45896</v>
       </c>
@@ -3337,13 +4869,13 @@
         <v>2244.190185546875</v>
       </c>
       <c r="C104">
-        <v>2433.261153559982</v>
+        <v>2433.2611535599822</v>
       </c>
       <c r="D104">
         <v>2211.308278066334</v>
       </c>
       <c r="E104">
-        <v>2375.717815469036</v>
+        <v>2375.7178154690359</v>
       </c>
       <c r="F104">
         <v>7439</v>
@@ -3357,8 +4889,24 @@
       <c r="I104">
         <v>2461.621704101562</v>
       </c>
-    </row>
-    <row r="105" spans="1:9">
+      <c r="J104">
+        <f t="shared" si="5"/>
+        <v>2323.9287109375</v>
+      </c>
+      <c r="K104">
+        <f t="shared" si="6"/>
+        <v>2461.6217041015625</v>
+      </c>
+      <c r="L104">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M104">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
         <v>45897</v>
       </c>
@@ -3381,13 +4929,29 @@
         <v>9</v>
       </c>
       <c r="H105">
-        <v>2302.55546875</v>
+        <v>2302.5554687499998</v>
       </c>
       <c r="I105">
         <v>2449.290991210938</v>
       </c>
-    </row>
-    <row r="106" spans="1:9">
+      <c r="J105">
+        <f t="shared" si="5"/>
+        <v>2302.5554687499998</v>
+      </c>
+      <c r="K105">
+        <f t="shared" si="6"/>
+        <v>2449.2909912109376</v>
+      </c>
+      <c r="L105">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M105">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
         <v>45898</v>
       </c>
@@ -3395,13 +4959,13 @@
         <v>2248.30029296875</v>
       </c>
       <c r="C106">
-        <v>2285.292436728748</v>
+        <v>2285.2924367287478</v>
       </c>
       <c r="D106">
-        <v>2149.654576275423</v>
+        <v>2149.6545762754231</v>
       </c>
       <c r="E106">
-        <v>2281.182198533193</v>
+        <v>2281.1821985331931</v>
       </c>
       <c r="F106">
         <v>3653</v>
@@ -3415,8 +4979,24 @@
       <c r="I106">
         <v>2435.316174316406</v>
       </c>
-    </row>
-    <row r="107" spans="1:9">
+      <c r="J106">
+        <f t="shared" si="5"/>
+        <v>2278.716064453125</v>
+      </c>
+      <c r="K106">
+        <f t="shared" si="6"/>
+        <v>2435.3161743164064</v>
+      </c>
+      <c r="L106">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M106">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
         <v>45901</v>
       </c>
@@ -3424,13 +5004,13 @@
         <v>2083.890869140625</v>
       </c>
       <c r="C107">
-        <v>2285.292550773545</v>
+        <v>2285.2925507735449</v>
       </c>
       <c r="D107">
         <v>2038.678246733235</v>
       </c>
       <c r="E107">
-        <v>2190.757067558093</v>
+        <v>2190.7570675580928</v>
       </c>
       <c r="F107">
         <v>24430</v>
@@ -3439,13 +5019,29 @@
         <v>9</v>
       </c>
       <c r="H107">
-        <v>2249.94443359375</v>
+        <v>2249.9444335937501</v>
       </c>
       <c r="I107">
-        <v>2415.381518554687</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>2415.3815185546869</v>
+      </c>
+      <c r="J107">
+        <f t="shared" si="5"/>
+        <v>2249.9444335937501</v>
+      </c>
+      <c r="K107">
+        <f t="shared" si="6"/>
+        <v>2415.3815185546873</v>
+      </c>
+      <c r="L107">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M107">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
         <v>45902</v>
       </c>
@@ -3456,10 +5052,10 @@
         <v>2120.88298969884</v>
       </c>
       <c r="D108">
-        <v>1956.473455613659</v>
+        <v>1956.4734556136591</v>
       </c>
       <c r="E108">
-        <v>2100.331797938193</v>
+        <v>2100.3317979381932</v>
       </c>
       <c r="F108">
         <v>26780</v>
@@ -3471,10 +5067,26 @@
         <v>2176.7822265625</v>
       </c>
       <c r="I108">
-        <v>2389.487023925781</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>2389.4870239257812</v>
+      </c>
+      <c r="J108">
+        <f t="shared" si="5"/>
+        <v>2176.7822265625</v>
+      </c>
+      <c r="K108">
+        <f t="shared" si="6"/>
+        <v>2389.4870239257812</v>
+      </c>
+      <c r="L108">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M108">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
         <v>45903</v>
       </c>
@@ -3497,13 +5109,29 @@
         <v>9</v>
       </c>
       <c r="H109">
-        <v>2106.086108398437</v>
+        <v>2106.0861083984369</v>
       </c>
       <c r="I109">
-        <v>2357.632672119141</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>2357.6326721191408</v>
+      </c>
+      <c r="J109">
+        <f t="shared" si="5"/>
+        <v>2106.0861083984373</v>
+      </c>
+      <c r="K109">
+        <f t="shared" si="6"/>
+        <v>2357.6326721191408</v>
+      </c>
+      <c r="L109">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M109">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
         <v>45904</v>
       </c>
@@ -3514,10 +5142,10 @@
         <v>1952.363176728908</v>
       </c>
       <c r="D110">
-        <v>1874.268649659752</v>
+        <v>1874.2686496597521</v>
       </c>
       <c r="E110">
-        <v>1894.81984099374</v>
+        <v>1894.8198409937399</v>
       </c>
       <c r="F110">
         <v>16500</v>
@@ -3529,10 +5157,26 @@
         <v>2041.1443359375</v>
       </c>
       <c r="I110">
-        <v>2324.33974609375</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>2324.3397460937499</v>
+      </c>
+      <c r="J110">
+        <f t="shared" si="5"/>
+        <v>2041.1443359375</v>
+      </c>
+      <c r="K110">
+        <f t="shared" si="6"/>
+        <v>2324.3397460937499</v>
+      </c>
+      <c r="L110">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M110">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
         <v>45905</v>
       </c>
@@ -3543,10 +5187,10 @@
         <v>2046.898683153893</v>
       </c>
       <c r="D111">
-        <v>1940.032486844654</v>
+        <v>1940.0324868446539</v>
       </c>
       <c r="E111">
-        <v>1948.252963483826</v>
+        <v>1948.2529634838261</v>
       </c>
       <c r="F111">
         <v>11075</v>
@@ -3558,10 +5202,26 @@
         <v>1989.355346679688</v>
       </c>
       <c r="I111">
-        <v>2290.224774169922</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>2290.2247741699221</v>
+      </c>
+      <c r="J111">
+        <f t="shared" si="5"/>
+        <v>1989.3553466796875</v>
+      </c>
+      <c r="K111">
+        <f t="shared" si="6"/>
+        <v>2290.2247741699221</v>
+      </c>
+      <c r="L111">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M111">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
         <v>45908</v>
       </c>
@@ -3584,13 +5244,29 @@
         <v>9</v>
       </c>
       <c r="H112">
-        <v>1950.719091796875</v>
+        <v>1950.7190917968751</v>
       </c>
       <c r="I112">
-        <v>2257.137353515625</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>2257.1373535156249</v>
+      </c>
+      <c r="J112">
+        <f t="shared" si="5"/>
+        <v>1950.7190917968751</v>
+      </c>
+      <c r="K112">
+        <f t="shared" si="6"/>
+        <v>2257.1373535156249</v>
+      </c>
+      <c r="L112">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M112">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
         <v>45909</v>
       </c>
@@ -3601,7 +5277,7 @@
         <v>2161.985328335591</v>
       </c>
       <c r="D113">
-        <v>1870.158411392954</v>
+        <v>1870.1584113929539</v>
       </c>
       <c r="E113">
         <v>1907.150555794133</v>
@@ -3616,10 +5292,26 @@
         <v>1931.811987304688</v>
       </c>
       <c r="I113">
-        <v>2225.488519287109</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>2225.4885192871088</v>
+      </c>
+      <c r="J113">
+        <f t="shared" si="5"/>
+        <v>1931.8119873046876</v>
+      </c>
+      <c r="K113">
+        <f t="shared" si="6"/>
+        <v>2225.4885192871093</v>
+      </c>
+      <c r="L113">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M113">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
         <v>45910</v>
       </c>
@@ -3627,7 +5319,7 @@
         <v>2293.512939453125</v>
       </c>
       <c r="C114">
-        <v>2383.938180793571</v>
+        <v>2383.9381807935711</v>
       </c>
       <c r="D114">
         <v>1989.355309489807</v>
@@ -3642,18 +5334,34 @@
         <v>9</v>
       </c>
       <c r="H114">
-        <v>2012.37265625</v>
+        <v>2012.3726562500001</v>
       </c>
       <c r="I114">
-        <v>2211.308197021484</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>2211.3081970214839</v>
+      </c>
+      <c r="J114">
+        <f t="shared" si="5"/>
+        <v>2012.3726562500001</v>
+      </c>
+      <c r="K114">
+        <f t="shared" si="6"/>
+        <v>2211.3081970214844</v>
+      </c>
+      <c r="L114">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M114">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
         <v>45911</v>
       </c>
       <c r="B115">
-        <v>2445</v>
+        <v>2480</v>
       </c>
       <c r="C115">
         <v>2630</v>
@@ -3671,18 +5379,34 @@
         <v>9</v>
       </c>
       <c r="H115">
-        <v>2112.544116210937</v>
+        <v>2112.5441162109369</v>
       </c>
       <c r="I115">
-        <v>2207.373883056641</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>2207.3738830566408</v>
+      </c>
+      <c r="J115">
+        <f t="shared" si="5"/>
+        <v>2119.5441162109373</v>
+      </c>
+      <c r="K115">
+        <f t="shared" si="6"/>
+        <v>2209.1238830566408</v>
+      </c>
+      <c r="L115">
+        <f t="shared" si="4"/>
+        <v>7.0000000000004547</v>
+      </c>
+      <c r="M115">
+        <f t="shared" si="7"/>
+        <v>-1.75</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
         <v>45912</v>
       </c>
       <c r="B116">
-        <v>2280</v>
+        <v>2285</v>
       </c>
       <c r="C116">
         <v>2550</v>
@@ -3700,13 +5424,29 @@
         <v>9</v>
       </c>
       <c r="H116">
-        <v>2170.673046875</v>
+        <v>2170.6730468750002</v>
       </c>
       <c r="I116">
         <v>2200.943902587891</v>
       </c>
-    </row>
-    <row r="117" spans="1:9">
+      <c r="J116">
+        <f t="shared" si="5"/>
+        <v>2178.6730468750002</v>
+      </c>
+      <c r="K116">
+        <f t="shared" si="6"/>
+        <v>2202.9439025878905</v>
+      </c>
+      <c r="L116">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="M116">
+        <f t="shared" si="7"/>
+        <v>-1.9999999999995453</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A117" s="2">
         <v>45915</v>
       </c>
@@ -3732,97 +5472,177 @@
         <v>2241.531127929688</v>
       </c>
       <c r="I117">
-        <v>2193.174945068359</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
-      <c r="A118" s="2">
+        <v>2193.1749450683592</v>
+      </c>
+      <c r="J117">
+        <f t="shared" si="5"/>
+        <v>2249.5311279296875</v>
+      </c>
+      <c r="K117">
+        <f t="shared" si="6"/>
+        <v>2195.1749450683592</v>
+      </c>
+      <c r="L117">
+        <f t="shared" si="4"/>
+        <v>7.9999999999995453</v>
+      </c>
+      <c r="M117">
+        <f t="shared" si="7"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="3">
         <v>45916</v>
       </c>
-      <c r="B118">
-        <v>2295</v>
-      </c>
-      <c r="C118">
+      <c r="B118" s="4">
+        <v>2310</v>
+      </c>
+      <c r="C118" s="4">
         <v>2450</v>
       </c>
-      <c r="D118">
+      <c r="D118" s="4">
         <v>2170</v>
       </c>
-      <c r="E118">
+      <c r="E118" s="4">
         <v>2255</v>
       </c>
-      <c r="F118">
+      <c r="F118" s="4">
         <v>23080</v>
       </c>
-      <c r="G118" t="s">
-        <v>9</v>
-      </c>
-      <c r="H118">
-        <v>2311.702587890625</v>
-      </c>
-      <c r="I118">
-        <v>2191.399688720703</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
-      <c r="A119" s="2">
+      <c r="G118" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H118" s="4">
+        <v>2311.7025878906252</v>
+      </c>
+      <c r="I118" s="4">
+        <v>2191.3996887207031</v>
+      </c>
+      <c r="J118">
+        <f t="shared" si="5"/>
+        <v>2322.7025878906252</v>
+      </c>
+      <c r="K118">
+        <f t="shared" si="6"/>
+        <v>2194.1496887207031</v>
+      </c>
+      <c r="L118">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="M118">
+        <f t="shared" si="7"/>
+        <v>-2.75</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="3">
         <v>45917</v>
       </c>
-      <c r="B119">
-        <v>2410</v>
-      </c>
-      <c r="C119">
+      <c r="B119" s="4">
+        <v>2370</v>
+      </c>
+      <c r="C119" s="4">
         <v>2540</v>
       </c>
-      <c r="D119">
+      <c r="D119" s="4">
         <v>2290</v>
       </c>
-      <c r="E119">
+      <c r="E119" s="4">
         <v>2370</v>
       </c>
-      <c r="F119">
+      <c r="F119" s="4">
         <v>31822</v>
       </c>
-      <c r="G119" t="s">
-        <v>9</v>
-      </c>
-      <c r="H119">
+      <c r="G119" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H119" s="4">
         <v>2335</v>
       </c>
-      <c r="I119">
+      <c r="I119" s="4">
         <v>2194.346868896484</v>
       </c>
-    </row>
-    <row r="120" spans="1:9">
-      <c r="A120" s="2">
+      <c r="J119">
+        <f t="shared" si="5"/>
+        <v>2338</v>
+      </c>
+      <c r="K119">
+        <f t="shared" si="6"/>
+        <v>2195.0968688964845</v>
+      </c>
+      <c r="L119">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="M119">
+        <f t="shared" si="7"/>
+        <v>-0.75000000000045475</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="3">
         <v>45918</v>
       </c>
-      <c r="B120">
+      <c r="B120" s="4">
+        <v>2400</v>
+      </c>
+      <c r="C120" s="4">
+        <v>2520</v>
+      </c>
+      <c r="D120" s="4">
+        <v>2230</v>
+      </c>
+      <c r="E120" s="4">
+        <v>2400</v>
+      </c>
+      <c r="F120" s="4">
+        <v>35670</v>
+      </c>
+      <c r="G120" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H120" s="4">
+        <v>2313</v>
+      </c>
+      <c r="I120" s="4">
+        <v>2192.310980224609</v>
+      </c>
+      <c r="J120">
+        <f t="shared" si="5"/>
+        <v>2322</v>
+      </c>
+      <c r="K120">
+        <f t="shared" si="6"/>
+        <v>2196.3109802246095</v>
+      </c>
+      <c r="L120">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="M120">
+        <f t="shared" si="7"/>
+        <v>-4.0000000000004547</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B121" s="4">
         <v>2335</v>
       </c>
-      <c r="C120">
-        <v>2520</v>
-      </c>
-      <c r="D120">
-        <v>2230</v>
-      </c>
-      <c r="E120">
-        <v>2400</v>
-      </c>
-      <c r="F120">
-        <v>35670</v>
-      </c>
-      <c r="G120" t="s">
-        <v>9</v>
-      </c>
-      <c r="H120">
-        <v>2313</v>
-      </c>
-      <c r="I120">
-        <v>2192.310980224609</v>
+      <c r="J121">
+        <f t="shared" si="5"/>
+        <v>2332</v>
+      </c>
+      <c r="K121">
+        <f t="shared" si="6"/>
+        <v>2194.6861145019529</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="J6" formulaRange="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>